--- a/files/Rev00_DataGraphics_PTBR.xlsx
+++ b/files/Rev00_DataGraphics_PTBR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e359efc7a6f442/Desktop/Enari/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45BFA939-BA54-47EC-9CAD-54ADEC3FF40F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="8" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste" sheetId="1" state="hidden" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="14">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -86,6 +86,9 @@
   <si>
     <t>CoutingSort</t>
   </si>
+  <si>
+    <t>RadixSort</t>
+  </si>
 </sst>
 </file>
 
@@ -100,12 +103,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,13 +129,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2442,17 +2465,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ordenados!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BubbleSort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -2508,6 +2520,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0309999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0690000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1830000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0179999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0109999999999998E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2521,17 +2548,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ordenados!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>InsertionSort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -2600,17 +2616,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ordenados!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SelectionSort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -2679,17 +2684,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ordenados!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MergeSort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -2756,17 +2750,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ordenados!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>QuickSort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -2833,17 +2816,6 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ordenados!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HeapSort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -2912,17 +2884,6 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ordenados!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CoutingSort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -3359,6 +3320,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.32450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.81595</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.1435</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.180549999999997</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3434,10 +3410,25 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'!Ordenados'!$C$2:$C$6</c:f>
+              <c:f>'!Ordenados'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.1536666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1510000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7834000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7357333333333338E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0836999999999997E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3590,10 +3581,13 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'!Ordenados'!$E$2:$E$6</c:f>
+              <c:f>'!Ordenados'!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3769,7 +3763,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CoutingSort</c:v>
+                  <c:v>RadixSort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3827,7 +3821,91 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'!Ordenados'!$H$2:$H$6</c:f>
+              <c:f>'!Ordenados'!$H$3:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
+                  <c:v>2.2390333333333332E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1D8A-4CD0-96CD-74A059675AAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'!Ordenados'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CoutingSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'!Ordenados'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'!Ordenados'!$I$2:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3837,7 +3915,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1D8A-4CD0-96CD-74A059675AAF}"/>
+              <c16:uniqueId val="{00000000-05DA-469E-93E4-09C6FFDC7826}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15462,7 +15540,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
@@ -15502,15 +15580,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15843,7 +15921,7 @@
   <autoFilter ref="A1:H6" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7BB7217C-59F8-4792-9EA0-0720D6D8B12E}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort"/>
+    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{D3407327-A185-4351-A55C-14014B1B867D}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{85C71698-96C8-48BF-9E4F-A31F4588E93A}" name="SelectionSort"/>
     <tableColumn id="5" xr3:uid="{D89F0557-14DD-46AD-9565-6B8B49785A1D}" name="MergeSort"/>
@@ -15856,16 +15934,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8E4EE357-D0C4-43BC-B881-53E1F8B229C0}" name="ValoresInversamenteOrdenados" displayName="ValoresInversamenteOrdenados" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{8E4EE357-D0C4-43BC-B881-53E1F8B229C0}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8E4EE357-D0C4-43BC-B881-53E1F8B229C0}" name="ValoresInversamenteOrdenados" displayName="ValoresInversamenteOrdenados" ref="A1:I6" totalsRowShown="0">
+  <autoFilter ref="A1:I6" xr:uid="{8E4EE357-D0C4-43BC-B881-53E1F8B229C0}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C1F8DEBA-C1C8-4F0D-B5A8-25CE5185E617}" name="Tamanho"/>
     <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort"/>
-    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort"/>
+    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort"/>
     <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort"/>
     <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort"/>
+    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort"/>
     <tableColumn id="8" xr3:uid="{1AF9EE2E-6E80-48E6-A0EA-B411C6533961}" name="CoutingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16641,7 +16720,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16686,25 +16765,41 @@
       <c r="A2">
         <v>10000</v>
       </c>
+      <c r="B2" s="1">
+        <v>2.0309999999999998E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
+      <c r="B3" s="1">
+        <v>3.0690000000000001E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
+      <c r="B4" s="1">
+        <v>5.1830000000000001E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
+      <c r="B5" s="1">
+        <v>2.0179999999999998E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
+      </c>
+      <c r="B6" s="1">
+        <f>(0.002015+0.002007)/2</f>
+        <v>2.0109999999999998E-3</v>
       </c>
     </row>
   </sheetData>
@@ -16721,10 +16816,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16732,13 +16827,14 @@
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -16761,32 +16857,84 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
+      <c r="B2">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="E2">
+        <f>(0.006058 + 0.006755 + 0.008648)/3</f>
+        <v>7.1536666666666667E-3</v>
+      </c>
+      <c r="H2">
+        <f>(0.004854+0.005872+0.005069)/3</f>
+        <v>5.2649999999999997E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
+      <c r="B3">
+        <v>1.3774</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="E3">
+        <f>(0.032114 + 0.017049 + 0.015367)/3</f>
+        <v>2.1510000000000001E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
+      <c r="B4">
+        <v>5.81595</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="E4">
+        <f>(0.025146 + 0.031812 + 0.026544)/3</f>
+        <v>2.7834000000000001E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
+      <c r="B5">
+        <v>22.1435</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="E5">
+        <f>(0.077793 + 0.082077 + 0.042202)/3</f>
+        <v>6.7357333333333338E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
+      </c>
+      <c r="B6">
+        <f>(36.2484 + 34.1127)/2</f>
+        <v>35.180549999999997</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6">
+        <f>(0.081262 + 0.065537 + 0.065712)/3</f>
+        <v>7.0836999999999997E-2</v>
+      </c>
+      <c r="H6">
+        <f>(0.022816 + 0.024383 + 0.019972)/3</f>
+        <v>2.2390333333333332E-2</v>
       </c>
     </row>
   </sheetData>
@@ -16806,7 +16954,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17220,7 +17368,7 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/files/Rev00_DataGraphics_PTBR.xlsx
+++ b/files/Rev00_DataGraphics_PTBR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e359efc7a6f442/Desktop/Enari/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45BFA939-BA54-47EC-9CAD-54ADEC3FF40F}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBEE1BD3-C1B4-4DE8-BB95-C06671E9DB6D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
   </bookViews>
@@ -129,10 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3825,8 +3824,17 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.1253333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4749333333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0516000000000003E-2</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2390333333333332E-2</c:v>
+                  <c:v>2.3499999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15869,6 +15877,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAB09E52-2397-4CF6-9C2D-3AE88C188B47}" name="Tabela2" displayName="Tabela2" ref="A1:D11" totalsRowShown="0">
   <autoFilter ref="A1:D11" xr:uid="{DAB09E52-2397-4CF6-9C2D-3AE88C188B47}"/>
@@ -16819,7 +16831,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16870,7 +16882,6 @@
       <c r="B2">
         <v>0.32450000000000001</v>
       </c>
-      <c r="C2" s="2"/>
       <c r="E2">
         <f>(0.006058 + 0.006755 + 0.008648)/3</f>
         <v>7.1536666666666667E-3</v>
@@ -16887,10 +16898,13 @@
       <c r="B3">
         <v>1.3774</v>
       </c>
-      <c r="C3" s="2"/>
       <c r="E3">
         <f>(0.032114 + 0.017049 + 0.015367)/3</f>
         <v>2.1510000000000001E-2</v>
+      </c>
+      <c r="H3">
+        <f>(0.005196+0.005353+0.007827)/3</f>
+        <v>6.1253333333333333E-3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -16900,10 +16914,13 @@
       <c r="B4">
         <v>5.81595</v>
       </c>
-      <c r="C4" s="2"/>
       <c r="E4">
         <f>(0.025146 + 0.031812 + 0.026544)/3</f>
         <v>2.7834000000000001E-2</v>
+      </c>
+      <c r="H4">
+        <f>(0.015147+0.012408+0.016693)/3</f>
+        <v>1.4749333333333335E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -16913,10 +16930,13 @@
       <c r="B5">
         <v>22.1435</v>
       </c>
-      <c r="C5" s="2"/>
       <c r="E5">
         <f>(0.077793 + 0.082077 + 0.042202)/3</f>
         <v>6.7357333333333338E-2</v>
+      </c>
+      <c r="H5">
+        <f>(0.020408+0.022819+0.018321)/3</f>
+        <v>2.0516000000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -16927,14 +16947,13 @@
         <f>(36.2484 + 34.1127)/2</f>
         <v>35.180549999999997</v>
       </c>
-      <c r="C6" s="2"/>
       <c r="E6">
         <f>(0.081262 + 0.065537 + 0.065712)/3</f>
         <v>7.0836999999999997E-2</v>
       </c>
       <c r="H6">
-        <f>(0.022816 + 0.024383 + 0.019972)/3</f>
-        <v>2.2390333333333332E-2</v>
+        <f>(0.022816 + 0.024383 + 0.023301)/3</f>
+        <v>2.3499999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/files/Rev00_DataGraphics_PTBR.xlsx
+++ b/files/Rev00_DataGraphics_PTBR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e359efc7a6f442/Desktop/Enari/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBEE1BD3-C1B4-4DE8-BB95-C06671E9DB6D}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB45B3A0-A7EB-467F-833C-C7BBEC07D751}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
   </bookViews>
@@ -94,6 +94,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,16 +133,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.000"/>
     </dxf>
     <dxf>
       <fill>
@@ -3317,22 +3330,22 @@
             <c:numRef>
               <c:f>'!Ordenados'!$B$2:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.32450000000000001</c:v>
+                  <c:v>0.37533833333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3774</c:v>
+                  <c:v>1.5142666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.81595</c:v>
+                  <c:v>5.6746633333333323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.1435</c:v>
+                  <c:v>22.592433333333332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.180549999999997</c:v>
+                  <c:v>35.15826666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3340,7 +3353,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1D8A-4CD0-96CD-74A059675AAF}"/>
+              <c16:uniqueId val="{00000000-BA95-4431-A92C-89FE8916D0CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3409,24 +3422,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'!Ordenados'!$E$2:$E$6</c:f>
+              <c:f>'!Ordenados'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>7.1536666666666667E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1510000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7834000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.7357333333333338E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0836999999999997E-2</c:v>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>29.435566666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3434,7 +3435,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1D8A-4CD0-96CD-74A059675AAF}"/>
+              <c16:uniqueId val="{00000001-BA95-4431-A92C-89FE8916D0CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3513,7 +3514,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1D8A-4CD0-96CD-74A059675AAF}"/>
+              <c16:uniqueId val="{00000002-BA95-4431-A92C-89FE8916D0CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3541,10 +3542,12 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
+            <c:symbol val="square"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
@@ -3580,12 +3583,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'!Ordenados'!#REF!</c:f>
+              <c:f>'!Ordenados'!$E$2:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>7.1536666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1510000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7834000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7357333333333338E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0836999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3593,7 +3608,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1D8A-4CD0-96CD-74A059675AAF}"/>
+              <c16:uniqueId val="{00000003-BA95-4431-A92C-89FE8916D0CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3621,7 +3636,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
+            <c:symbol val="x"/>
             <c:size val="6"/>
             <c:spPr>
               <a:noFill/>
@@ -3670,7 +3685,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1D8A-4CD0-96CD-74A059675AAF}"/>
+              <c16:uniqueId val="{00000004-BA95-4431-A92C-89FE8916D0CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3749,7 +3764,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-1D8A-4CD0-96CD-74A059675AAF}"/>
+              <c16:uniqueId val="{00000005-BA95-4431-A92C-89FE8916D0CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3820,20 +3835,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'!Ordenados'!$H$3:$H$6</c:f>
+              <c:f>'!Ordenados'!$H$2:$H$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>5.2649999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6.1253333333333333E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.4749333333333335E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.0516000000000003E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.3499999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3842,7 +3860,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1D8A-4CD0-96CD-74A059675AAF}"/>
+              <c16:uniqueId val="{00000006-BA95-4431-A92C-89FE8916D0CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3923,7 +3941,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-05DA-469E-93E4-09C6FFDC7826}"/>
+              <c16:uniqueId val="{00000007-BA95-4431-A92C-89FE8916D0CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4021,7 +4039,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -15596,8 +15614,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15933,7 +15951,7 @@
   <autoFilter ref="A1:H6" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7BB7217C-59F8-4792-9EA0-0720D6D8B12E}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{D3407327-A185-4351-A55C-14014B1B867D}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{85C71698-96C8-48BF-9E4F-A31F4588E93A}" name="SelectionSort"/>
     <tableColumn id="5" xr3:uid="{D89F0557-14DD-46AD-9565-6B8B49785A1D}" name="MergeSort"/>
@@ -15953,10 +15971,10 @@
     <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort"/>
     <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort"/>
-    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort"/>
+    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort"/>
-    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort"/>
+    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{1AF9EE2E-6E80-48E6-A0EA-B411C6533961}" name="CoutingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16831,18 +16849,19 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16879,14 +16898,15 @@
       <c r="A2">
         <v>10000</v>
       </c>
-      <c r="B2">
-        <v>0.32450000000000001</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="4">
+        <f>(0.400121 + 0.35489 + 0.371004)/3</f>
+        <v>0.37533833333333333</v>
+      </c>
+      <c r="E2" s="3">
         <f>(0.006058 + 0.006755 + 0.008648)/3</f>
         <v>7.1536666666666667E-3</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <f>(0.004854+0.005872+0.005069)/3</f>
         <v>5.2649999999999997E-3</v>
       </c>
@@ -16895,14 +16915,15 @@
       <c r="A3">
         <v>20000</v>
       </c>
-      <c r="B3">
-        <v>1.3774</v>
-      </c>
-      <c r="E3">
+      <c r="B3" s="4">
+        <f>(1.59393+1.47473+1.47414)/3</f>
+        <v>1.5142666666666669</v>
+      </c>
+      <c r="E3" s="3">
         <f>(0.032114 + 0.017049 + 0.015367)/3</f>
         <v>2.1510000000000001E-2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <f>(0.005196+0.005353+0.007827)/3</f>
         <v>6.1253333333333333E-3</v>
       </c>
@@ -16911,14 +16932,15 @@
       <c r="A4">
         <v>40000</v>
       </c>
-      <c r="B4">
-        <v>5.81595</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="4">
+        <f>(5.73225 + 5.69743 + 5.59431)/3</f>
+        <v>5.6746633333333323</v>
+      </c>
+      <c r="E4" s="3">
         <f>(0.025146 + 0.031812 + 0.026544)/3</f>
         <v>2.7834000000000001E-2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <f>(0.015147+0.012408+0.016693)/3</f>
         <v>1.4749333333333335E-2</v>
       </c>
@@ -16927,14 +16949,15 @@
       <c r="A5">
         <v>80000</v>
       </c>
-      <c r="B5">
-        <v>22.1435</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="4">
+        <f>(22.6429+22.6126+22.5218)/3</f>
+        <v>22.592433333333332</v>
+      </c>
+      <c r="E5" s="3">
         <f>(0.077793 + 0.082077 + 0.042202)/3</f>
         <v>6.7357333333333338E-2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <f>(0.020408+0.022819+0.018321)/3</f>
         <v>2.0516000000000003E-2</v>
       </c>
@@ -16943,15 +16966,19 @@
       <c r="A6">
         <v>100000</v>
       </c>
-      <c r="B6">
-        <f>(36.2484 + 34.1127)/2</f>
-        <v>35.180549999999997</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="4">
+        <f>(35.2107+35.4054+34.8587)/3</f>
+        <v>35.15826666666667</v>
+      </c>
+      <c r="C6" s="4">
+        <f>(29.7728+28.9981+29.5358)/3</f>
+        <v>29.435566666666663</v>
+      </c>
+      <c r="E6" s="3">
         <f>(0.081262 + 0.065537 + 0.065712)/3</f>
         <v>7.0836999999999997E-2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f>(0.022816 + 0.024383 + 0.023301)/3</f>
         <v>2.3499999999999997E-2</v>
       </c>

--- a/files/Rev00_DataGraphics_PTBR.xlsx
+++ b/files/Rev00_DataGraphics_PTBR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e359efc7a6f442/Desktop/Enari/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB45B3A0-A7EB-467F-833C-C7BBEC07D751}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEC8B137-F832-4A03-854D-3877CC5A827C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
   </bookViews>
@@ -95,8 +95,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -136,22 +136,25 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.000"/>
     </dxf>
     <dxf>
       <fill>
@@ -3424,9 +3427,21 @@
             <c:numRef>
               <c:f>'!Ordenados'!$C$2:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="4" formatCode="0.00">
+                <c:pt idx="0">
+                  <c:v>0.28608600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1996799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6637266666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.733766666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>29.435566666666663</c:v>
                 </c:pt>
               </c:numCache>
@@ -4312,8 +4327,23 @@
             <c:numRef>
               <c:f>Aleatório!$B$2:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.33670966666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5623633333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.593583333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.380733333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.907533333333333</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4890,7 +4920,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -15951,7 +15981,7 @@
   <autoFilter ref="A1:H6" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7BB7217C-59F8-4792-9EA0-0720D6D8B12E}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{D3407327-A185-4351-A55C-14014B1B867D}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{85C71698-96C8-48BF-9E4F-A31F4588E93A}" name="SelectionSort"/>
     <tableColumn id="5" xr3:uid="{D89F0557-14DD-46AD-9565-6B8B49785A1D}" name="MergeSort"/>
@@ -15969,7 +15999,7 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C1F8DEBA-C1C8-4F0D-B5A8-25CE5185E617}" name="Tamanho"/>
     <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort"/>
-    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort"/>
     <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort"/>
@@ -15986,7 +16016,7 @@
   <autoFilter ref="A1:H6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{88AB9604-3310-46A1-AD70-21C2608B01C8}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort"/>
+    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{277890D8-FE28-4EFB-A704-7CA343850008}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort"/>
     <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort"/>
@@ -16750,7 +16780,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16849,7 +16879,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16902,6 +16932,10 @@
         <f>(0.400121 + 0.35489 + 0.371004)/3</f>
         <v>0.37533833333333333</v>
       </c>
+      <c r="C2" s="4">
+        <f>(0.28909+0.278629+0.290539)/3</f>
+        <v>0.28608600000000001</v>
+      </c>
       <c r="E2" s="3">
         <f>(0.006058 + 0.006755 + 0.008648)/3</f>
         <v>7.1536666666666667E-3</v>
@@ -16919,6 +16953,10 @@
         <f>(1.59393+1.47473+1.47414)/3</f>
         <v>1.5142666666666669</v>
       </c>
+      <c r="C3" s="4">
+        <f>(1.2161+1.14851+1.23443)/3</f>
+        <v>1.1996799999999999</v>
+      </c>
       <c r="E3" s="3">
         <f>(0.032114 + 0.017049 + 0.015367)/3</f>
         <v>2.1510000000000001E-2</v>
@@ -16936,6 +16974,10 @@
         <f>(5.73225 + 5.69743 + 5.59431)/3</f>
         <v>5.6746633333333323</v>
       </c>
+      <c r="C4" s="4">
+        <f>(4.75831+4.64676+4.58611)/3</f>
+        <v>4.6637266666666664</v>
+      </c>
       <c r="E4" s="3">
         <f>(0.025146 + 0.031812 + 0.026544)/3</f>
         <v>2.7834000000000001E-2</v>
@@ -16952,6 +16994,10 @@
       <c r="B5" s="4">
         <f>(22.6429+22.6126+22.5218)/3</f>
         <v>22.592433333333332</v>
+      </c>
+      <c r="C5" s="4">
+        <f>(19.0952+18.4903+18.6158)/3</f>
+        <v>18.733766666666664</v>
       </c>
       <c r="E5" s="3">
         <f>(0.077793 + 0.082077 + 0.042202)/3</f>
@@ -17000,13 +17046,13 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -17045,25 +17091,45 @@
       <c r="A2">
         <v>10000</v>
       </c>
+      <c r="B2" s="4">
+        <f>(0.325188+0.367946+0.316995)/3</f>
+        <v>0.33670966666666668</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
+      <c r="B3" s="4">
+        <f>(1.52425+1.63456+1.52828)/3</f>
+        <v>1.5623633333333331</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
+      <c r="B4" s="4">
+        <f>(5.53739+5.55585+5.68751)/3</f>
+        <v>5.593583333333334</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
+      <c r="B5" s="4">
+        <f>(22.768+22.2722+22.102)/3</f>
+        <v>22.380733333333335</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
+      </c>
+      <c r="B6" s="4">
+        <f>(34.6919+35.3491+37.6816)/3</f>
+        <v>35.907533333333333</v>
       </c>
     </row>
   </sheetData>

--- a/files/Rev00_DataGraphics_PTBR.xlsx
+++ b/files/Rev00_DataGraphics_PTBR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e359efc7a6f442/Desktop/Enari/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEC8B137-F832-4A03-854D-3877CC5A827C}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3BC54F2-FC0E-4FF7-BB6C-13F21CC07432}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste" sheetId="1" state="hidden" r:id="rId1"/>
@@ -4421,8 +4421,23 @@
             <c:numRef>
               <c:f>Aleatório!$C$2:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.13780733333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61377533333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2894266666666669</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>9.24057</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>14.346200000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -16878,7 +16893,7 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -17045,15 +17060,15 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -17095,6 +17110,10 @@
         <f>(0.325188+0.367946+0.316995)/3</f>
         <v>0.33670966666666668</v>
       </c>
+      <c r="C2" s="2">
+        <f>(0.133132+0.138554+0.141736)/3</f>
+        <v>0.13780733333333331</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -17104,6 +17123,10 @@
         <f>(1.52425+1.63456+1.52828)/3</f>
         <v>1.5623633333333331</v>
       </c>
+      <c r="C3" s="2">
+        <f>(0.547077+0.553206+0.741043)/3</f>
+        <v>0.61377533333333334</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -17113,6 +17136,10 @@
         <f>(5.53739+5.55585+5.68751)/3</f>
         <v>5.593583333333334</v>
       </c>
+      <c r="C4" s="2">
+        <f>(2.27114+2.26733+2.32981)/3</f>
+        <v>2.2894266666666669</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -17122,6 +17149,10 @@
         <f>(22.768+22.2722+22.102)/3</f>
         <v>22.380733333333335</v>
       </c>
+      <c r="C5">
+        <f>(9.1501+9.11789+9.45372)/3</f>
+        <v>9.24057</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -17130,6 +17161,10 @@
       <c r="B6" s="4">
         <f>(34.6919+35.3491+37.6816)/3</f>
         <v>35.907533333333333</v>
+      </c>
+      <c r="C6">
+        <f>(14.2188+14.4099+14.4099)/3</f>
+        <v>14.346200000000001</v>
       </c>
     </row>
   </sheetData>

--- a/files/Rev00_DataGraphics_PTBR.xlsx
+++ b/files/Rev00_DataGraphics_PTBR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e359efc7a6f442/Desktop/Enari/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3BC54F2-FC0E-4FF7-BB6C-13F21CC07432}"/>
+  <xr:revisionPtr revIDLastSave="292" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{148554A7-2D31-4732-A7C2-25E14B669D9C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="10" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste" sheetId="1" state="hidden" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="16">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -89,6 +89,12 @@
   <si>
     <t>RadixSort</t>
   </si>
+  <si>
+    <t>CountSort</t>
+  </si>
+  <si>
+    <t>CountingSort</t>
+  </si>
 </sst>
 </file>
 
@@ -96,7 +102,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -137,21 +143,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.00000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1258,7 +1270,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CoutingSort</c:v>
+                  <c:v>RadixSort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1327,6 +1339,91 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-0EE9-482A-B857-7C50FAB3A791}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QtdComparações!Ordenados'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CountSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QtdComparações!Ordenados'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QtdComparações!Ordenados'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DF7-49B2-BF15-A8855CD329E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2107,7 +2204,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CoutingSort</c:v>
+                  <c:v>RadixSort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2176,6 +2273,91 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-961A-4C3E-92CF-5D874F6D2A31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>QtdComparaçõesAleatório!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CountingSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>QtdComparaçõesAleatório!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>QtdComparaçõesAleatório!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-146A-4A29-B8A2-0FBF7A77360C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2480,6 +2662,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ordenados!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BubbleSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -2563,6 +2756,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ordenados!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>InsertionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -2631,6 +2835,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ordenados!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SelectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -2699,6 +2914,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ordenados!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MergeSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -2765,6 +2991,17 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ordenados!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QuickSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -2831,6 +3068,17 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ordenados!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HeapSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -2899,6 +3147,17 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ordenados!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RadixSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -2963,6 +3222,91 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-CE7A-4A6B-B6A6-0DFF57C6228C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ordenados!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CoutingSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ordenados!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ordenados!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB0A-4DF3-A244-B1A31A5206A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3600,7 +3944,7 @@
             <c:numRef>
               <c:f>'!Ordenados'!$E$2:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.1536666666666667E-3</c:v>
@@ -4592,8 +4936,23 @@
             <c:numRef>
               <c:f>Aleatório!$E$2:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.5006666666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4546999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7223666666666663E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.533366666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2526999999999984E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4769,7 +5128,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CoutingSort</c:v>
+                  <c:v>RadixSort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4829,6 +5188,106 @@
             <c:numRef>
               <c:f>Aleatório!$H$2:$H$6</c:f>
               <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4703333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8380000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.456333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7918666666666665E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8515333333333334E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-10FE-45B2-B9E0-C2EF9D9097AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Aleatório!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CoutingSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Aleatório!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Aleatório!$I$2:$I$6</c:f>
+              <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
@@ -4837,7 +5296,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-10FE-45B2-B9E0-C2EF9D9097AF}"/>
+              <c16:uniqueId val="{00000000-BDD2-4120-A07B-7E3F7ECCF915}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5618,7 +6077,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CoutingSort</c:v>
+                  <c:v>RadixSort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5687,6 +6146,91 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-FFBB-4830-8DFC-39FEF97EEBF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparação Espacial'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CoutingSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Comparação Espacial'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Comparação Espacial'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A32-4351-BC05-416027ACA0BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6486,7 +7030,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CoutingSort</c:v>
+                  <c:v>RadixSort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6555,6 +7099,91 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-5CFA-4021-9F70-805C9548144B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TrocaElementos Ordenados'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CountSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'TrocaElementos Ordenados'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'TrocaElementos Ordenados'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BFB0-477C-840B-EAD26957B766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7335,7 +7964,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CoutingSort</c:v>
+                  <c:v>RadixSort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7404,6 +8033,91 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-E5B0-4127-9DD2-519357893072}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TrocaElementos !Ordenados'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CountSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'TrocaElementos !Ordenados'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'TrocaElementos !Ordenados'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A121-452F-A418-224CA46DF1B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8184,7 +8898,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CoutingSort</c:v>
+                  <c:v>RadixSort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8253,6 +8967,91 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-4C6B-4E74-9DB9-665D330DD24C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TrocaElementos Aleatório'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CountSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'TrocaElementos Aleatório'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'TrocaElementos Aleatório'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9832-45DD-876F-C30B9DFFB715}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9033,7 +9832,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CoutingSort</c:v>
+                  <c:v>RadixSort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9102,6 +9901,91 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-5F3C-4099-A9E0-18BF573B6AE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>QtdComparaçõesOrdenados!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CountSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>QtdComparaçõesOrdenados!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>QtdComparaçõesOrdenados!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2836-4C0C-A33D-C31D57D642FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15524,16 +16408,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15567,16 +16451,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15610,16 +16494,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15692,16 +16576,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15733,16 +16617,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15774,15 +16658,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15815,16 +16699,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15858,16 +16742,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15901,16 +16785,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15958,9 +16842,9 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{7CD54369-BE78-498F-8CCD-E006927F57CC}" name="QtdComparaçõesReversamenteOrdenados" displayName="QtdComparaçõesReversamenteOrdenados" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{8823178C-8734-4A27-A77E-F8D0D6749A08}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{7CD54369-BE78-498F-8CCD-E006927F57CC}" name="QtdComparaçõesReversamenteOrdenados" displayName="QtdComparaçõesReversamenteOrdenados" ref="A1:I6" totalsRowShown="0">
+  <autoFilter ref="A1:I6" xr:uid="{8823178C-8734-4A27-A77E-F8D0D6749A08}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2983F2FA-5095-4081-A406-609AE2A7E349}" name="Tamanho"/>
     <tableColumn id="2" xr3:uid="{36718A27-BAE0-418D-998E-E66545E11A20}" name="BubbleSort"/>
     <tableColumn id="3" xr3:uid="{4521C648-DED8-4684-B9A4-88A50FBF3BFD}" name="InsertionSort"/>
@@ -15968,16 +16852,17 @@
     <tableColumn id="5" xr3:uid="{A7792E1E-179A-4EF3-A4A7-1EEBA4FE05EA}" name="MergeSort"/>
     <tableColumn id="6" xr3:uid="{5E32D2FA-669C-419B-BAC9-1E34329CE138}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{F15D95AE-A03E-4290-B602-9DFAE8D69A51}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{4D831F27-059F-4473-B333-900F26588A86}" name="CoutingSort"/>
+    <tableColumn id="8" xr3:uid="{4D831F27-059F-4473-B333-900F26588A86}" name="RadixSort"/>
+    <tableColumn id="9" xr3:uid="{78ABF6D1-774A-473B-AA8C-E6BDDFC9B8CF}" name="CountSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{697DE3DD-43EE-4D4F-A3B1-084C68EC25DB}" name="QtdComparaçõesReversamenteOrdenados14" displayName="QtdComparaçõesReversamenteOrdenados14" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{8823178C-8734-4A27-A77E-F8D0D6749A08}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{697DE3DD-43EE-4D4F-A3B1-084C68EC25DB}" name="QtdComparaçõesReversamenteOrdenados14" displayName="QtdComparaçõesReversamenteOrdenados14" ref="A1:I6" totalsRowShown="0">
+  <autoFilter ref="A1:I6" xr:uid="{8823178C-8734-4A27-A77E-F8D0D6749A08}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BEE4EF88-29E2-4DDD-BFE1-7C8C5CD7653B}" name="Tamanho"/>
     <tableColumn id="2" xr3:uid="{B10B8E1C-B634-4166-94E9-DE2069ED3373}" name="BubbleSort"/>
     <tableColumn id="3" xr3:uid="{4780842C-AEBA-497B-9744-D11CFE76A317}" name="InsertionSort"/>
@@ -15985,24 +16870,26 @@
     <tableColumn id="5" xr3:uid="{674C8963-8923-47E8-992E-23C479459142}" name="MergeSort"/>
     <tableColumn id="6" xr3:uid="{B4CA25D8-5A6E-4494-A066-9884739CA670}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{1696EB85-8CC2-4994-9660-2C79E0D1F342}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{F82348C7-E74C-4C3D-A1B8-064F84E124EB}" name="CoutingSort"/>
+    <tableColumn id="8" xr3:uid="{F82348C7-E74C-4C3D-A1B8-064F84E124EB}" name="RadixSort"/>
+    <tableColumn id="9" xr3:uid="{4FF7CDA6-C38E-403B-8C07-DBA3B6D353E2}" name="CountingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}" name="ValoresOrdenados" displayName="ValoresOrdenados" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}" name="ValoresOrdenados" displayName="ValoresOrdenados" ref="A1:I6" totalsRowShown="0">
+  <autoFilter ref="A1:I6" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BB7217C-59F8-4792-9EA0-0720D6D8B12E}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{D3407327-A185-4351-A55C-14014B1B867D}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{85C71698-96C8-48BF-9E4F-A31F4588E93A}" name="SelectionSort"/>
     <tableColumn id="5" xr3:uid="{D89F0557-14DD-46AD-9565-6B8B49785A1D}" name="MergeSort"/>
     <tableColumn id="6" xr3:uid="{342D5A51-5208-4EAA-A16A-1781198676FD}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{FBA48003-53BB-41A5-8ED7-223B444BF07D}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{AADA5A23-24DA-4A5E-9964-0C51CE8886B7}" name="CoutingSort"/>
+    <tableColumn id="8" xr3:uid="{AADA5A23-24DA-4A5E-9964-0C51CE8886B7}" name="RadixSort"/>
+    <tableColumn id="9" xr3:uid="{8A78FEEA-65F3-4865-8351-640E30D1210A}" name="CoutingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16014,12 +16901,12 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C1F8DEBA-C1C8-4F0D-B5A8-25CE5185E617}" name="Tamanho"/>
     <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort"/>
-    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort"/>
-    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort"/>
-    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{1AF9EE2E-6E80-48E6-A0EA-B411C6533961}" name="CoutingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16027,26 +16914,27 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}" name="Aleatório1" displayName="Aleatório1" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}" name="Aleatório1" displayName="Aleatório1" ref="A1:I6" totalsRowShown="0">
+  <autoFilter ref="A1:I6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{88AB9604-3310-46A1-AD70-21C2608B01C8}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{277890D8-FE28-4EFB-A704-7CA343850008}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort"/>
-    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort"/>
+    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{8F5D90A6-8E0B-4E1B-8D02-4E5B09ACDCA0}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{59D8846C-91B6-4237-BE54-A17E0A509527}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="CoutingSort"/>
+    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{619396B8-4D34-41CE-9058-67D32CCB2D0F}" name="ComparaçãoEspacial" displayName="ComparaçãoEspacial" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{619396B8-4D34-41CE-9058-67D32CCB2D0F}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{619396B8-4D34-41CE-9058-67D32CCB2D0F}" name="ComparaçãoEspacial" displayName="ComparaçãoEspacial" ref="A1:I6" totalsRowShown="0">
+  <autoFilter ref="A1:I6" xr:uid="{619396B8-4D34-41CE-9058-67D32CCB2D0F}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{CECC51D6-AE9E-4FFA-BEC0-B80782E284B4}" name="Tamanho"/>
     <tableColumn id="2" xr3:uid="{992F9C0B-6668-4206-8062-5710FE0429D1}" name="BubbleSort"/>
     <tableColumn id="3" xr3:uid="{EFA1803E-44E3-404F-87D9-65CCBEE1A3DE}" name="InsertionSort"/>
@@ -16054,16 +16942,17 @@
     <tableColumn id="5" xr3:uid="{EECD94D9-E658-432D-87FC-A98B3E2C2645}" name="MergeSort"/>
     <tableColumn id="6" xr3:uid="{ACF4646F-3D62-4D2C-AFE7-17C20339F4C3}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{0B50FEDD-0752-47C3-ABE3-0D8374A536C0}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{C8222E89-0ECB-433B-90A5-CBD88DB6FE41}" name="CoutingSort"/>
+    <tableColumn id="8" xr3:uid="{C8222E89-0ECB-433B-90A5-CBD88DB6FE41}" name="RadixSort"/>
+    <tableColumn id="9" xr3:uid="{64003905-FAB0-4E61-96E1-4F3B35279A72}" name="CoutingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8823178C-8734-4A27-A77E-F8D0D6749A08}" name="TrocaElementosOrdenados" displayName="TrocaElementosOrdenados" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{8823178C-8734-4A27-A77E-F8D0D6749A08}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8823178C-8734-4A27-A77E-F8D0D6749A08}" name="TrocaElementosOrdenados" displayName="TrocaElementosOrdenados" ref="A1:I6" totalsRowShown="0">
+  <autoFilter ref="A1:I6" xr:uid="{8823178C-8734-4A27-A77E-F8D0D6749A08}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{CA45B9E1-0AD0-48B7-9C24-C99DF2543717}" name="Tamanho"/>
     <tableColumn id="2" xr3:uid="{234F7570-9529-4B8A-A241-3DCC5295A8FD}" name="BubbleSort"/>
     <tableColumn id="3" xr3:uid="{BC9E68A5-2ABE-46B5-8562-5891C4DDA757}" name="InsertionSort"/>
@@ -16071,16 +16960,17 @@
     <tableColumn id="5" xr3:uid="{B44A8182-7E72-4F31-A025-FD935AB7E8AD}" name="MergeSort"/>
     <tableColumn id="6" xr3:uid="{BEE44ABC-54D4-41E2-A4B0-7826A81CAAB7}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{2FFBE7C3-5253-4A33-9C9A-30A9A5E4133A}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{338FF9A9-66AE-4FAE-837C-54972450D9B7}" name="CoutingSort"/>
+    <tableColumn id="8" xr3:uid="{338FF9A9-66AE-4FAE-837C-54972450D9B7}" name="RadixSort"/>
+    <tableColumn id="9" xr3:uid="{024145B2-E462-4716-A517-97C92D397825}" name="CountSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C598B108-7331-46FC-BE58-B41A176FC9A4}" name="TrocaElementosReversamenteOrdenados" displayName="TrocaElementosReversamenteOrdenados" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{8823178C-8734-4A27-A77E-F8D0D6749A08}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C598B108-7331-46FC-BE58-B41A176FC9A4}" name="TrocaElementosReversamenteOrdenados" displayName="TrocaElementosReversamenteOrdenados" ref="A1:I6" totalsRowShown="0">
+  <autoFilter ref="A1:I6" xr:uid="{8823178C-8734-4A27-A77E-F8D0D6749A08}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{995CF0FE-9D9B-4729-BF0B-22850492F63B}" name="Tamanho"/>
     <tableColumn id="2" xr3:uid="{520837E3-4740-4634-A82C-2BD6A249542A}" name="BubbleSort"/>
     <tableColumn id="3" xr3:uid="{46BBC858-F217-4043-9643-9BE8F57EDFBD}" name="InsertionSort"/>
@@ -16088,16 +16978,17 @@
     <tableColumn id="5" xr3:uid="{3F92B14D-AEEE-480D-969B-BEC9394E12F8}" name="MergeSort"/>
     <tableColumn id="6" xr3:uid="{6CC02F2F-6196-45AF-ACD3-91CCD1A02A34}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{A6F930E4-5AD0-47E1-9267-60C7F72EE0DA}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{7E89E895-66CC-43F5-8907-DD68410E2B94}" name="CoutingSort"/>
+    <tableColumn id="8" xr3:uid="{7E89E895-66CC-43F5-8907-DD68410E2B94}" name="RadixSort"/>
+    <tableColumn id="9" xr3:uid="{F3F0B43C-8353-444D-848C-81B4669C747C}" name="CountSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5783FD78-8E8E-413E-8A83-3A308053BE24}" name="TrocaElementosAleatorio" displayName="TrocaElementosAleatorio" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{8823178C-8734-4A27-A77E-F8D0D6749A08}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5783FD78-8E8E-413E-8A83-3A308053BE24}" name="TrocaElementosAleatorio" displayName="TrocaElementosAleatorio" ref="A1:I6" totalsRowShown="0">
+  <autoFilter ref="A1:I6" xr:uid="{8823178C-8734-4A27-A77E-F8D0D6749A08}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{6691917A-BF21-4A64-AD32-6F83C814CC11}" name="Tamanho"/>
     <tableColumn id="2" xr3:uid="{AE33D3C6-4BB3-4E59-A1E1-A655DFCB9976}" name="BubbleSort"/>
     <tableColumn id="3" xr3:uid="{E80BD8D0-7D56-4F74-8824-CC7C646173B4}" name="InsertionSort"/>
@@ -16105,16 +16996,17 @@
     <tableColumn id="5" xr3:uid="{98A5238D-FEDB-4017-AEFD-4B1F2BE511A2}" name="MergeSort"/>
     <tableColumn id="6" xr3:uid="{9A391EEB-CCC4-497C-824D-DCCD7E4296ED}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{EAB57498-615C-4B75-8200-9ECC842A0F39}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{657D4D68-897A-4066-8CAB-3E36C1A90524}" name="CoutingSort"/>
+    <tableColumn id="8" xr3:uid="{657D4D68-897A-4066-8CAB-3E36C1A90524}" name="RadixSort"/>
+    <tableColumn id="9" xr3:uid="{DD43847B-4B3B-47BD-A553-476558A68D7F}" name="CountSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3A332BD4-32F3-475F-AF39-94309CD14E01}" name="QtdComparaçõesOrdenados" displayName="QtdComparaçõesOrdenados" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{8823178C-8734-4A27-A77E-F8D0D6749A08}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3A332BD4-32F3-475F-AF39-94309CD14E01}" name="QtdComparaçõesOrdenados" displayName="QtdComparaçõesOrdenados" ref="A1:I6" totalsRowShown="0">
+  <autoFilter ref="A1:I6" xr:uid="{8823178C-8734-4A27-A77E-F8D0D6749A08}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{8100488A-81D9-493E-823C-858CBB0C9070}" name="Tamanho"/>
     <tableColumn id="2" xr3:uid="{0680AF30-5886-4382-845B-09B8E3BBB827}" name="BubbleSort"/>
     <tableColumn id="3" xr3:uid="{E71762A3-C1F9-4980-8B3D-57C9592D88CD}" name="InsertionSort"/>
@@ -16122,7 +17014,8 @@
     <tableColumn id="5" xr3:uid="{05776540-1407-47E1-AAAB-3E99FC14264A}" name="MergeSort"/>
     <tableColumn id="6" xr3:uid="{F4C4C4CB-4B94-4A72-B0DF-AAC9254ECDE7}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{630934CC-C919-45E9-B79F-E156EFE1AAE2}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{F4303674-EE7C-4E92-816F-61F29F16C7FB}" name="CoutingSort"/>
+    <tableColumn id="8" xr3:uid="{F4303674-EE7C-4E92-816F-61F29F16C7FB}" name="RadixSort"/>
+    <tableColumn id="9" xr3:uid="{6ACD17ED-9BCC-42A7-AF0F-BF962B7C703A}" name="CountSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16626,10 +17519,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16642,9 +17535,10 @@
     <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -16667,30 +17561,33 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
       </c>
@@ -16709,10 +17606,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16725,9 +17622,10 @@
     <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -16750,30 +17648,33 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
       </c>
@@ -16792,10 +17693,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16807,10 +17708,10 @@
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -16833,10 +17734,13 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -16844,7 +17748,7 @@
         <v>2.0309999999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
@@ -16852,7 +17756,7 @@
         <v>3.0690000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
@@ -16860,7 +17764,7 @@
         <v>5.1830000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
@@ -16868,7 +17772,7 @@
         <v>2.0179999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
       </c>
@@ -16894,7 +17798,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16943,15 +17847,15 @@
       <c r="A2">
         <v>10000</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <f>(0.400121 + 0.35489 + 0.371004)/3</f>
         <v>0.37533833333333333</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>(0.28909+0.278629+0.290539)/3</f>
         <v>0.28608600000000001</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <f>(0.006058 + 0.006755 + 0.008648)/3</f>
         <v>7.1536666666666667E-3</v>
       </c>
@@ -16964,15 +17868,15 @@
       <c r="A3">
         <v>20000</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <f>(1.59393+1.47473+1.47414)/3</f>
         <v>1.5142666666666669</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>(1.2161+1.14851+1.23443)/3</f>
         <v>1.1996799999999999</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <f>(0.032114 + 0.017049 + 0.015367)/3</f>
         <v>2.1510000000000001E-2</v>
       </c>
@@ -16985,15 +17889,15 @@
       <c r="A4">
         <v>40000</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f>(5.73225 + 5.69743 + 5.59431)/3</f>
         <v>5.6746633333333323</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f>(4.75831+4.64676+4.58611)/3</f>
         <v>4.6637266666666664</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <f>(0.025146 + 0.031812 + 0.026544)/3</f>
         <v>2.7834000000000001E-2</v>
       </c>
@@ -17006,15 +17910,15 @@
       <c r="A5">
         <v>80000</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <f>(22.6429+22.6126+22.5218)/3</f>
         <v>22.592433333333332</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>(19.0952+18.4903+18.6158)/3</f>
         <v>18.733766666666664</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <f>(0.077793 + 0.082077 + 0.042202)/3</f>
         <v>6.7357333333333338E-2</v>
       </c>
@@ -17027,15 +17931,15 @@
       <c r="A6">
         <v>100000</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <f>(35.2107+35.4054+34.8587)/3</f>
         <v>35.15826666666667</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f>(29.7728+28.9981+29.5358)/3</f>
         <v>29.435566666666663</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <f>(0.081262 + 0.065537 + 0.065712)/3</f>
         <v>7.0836999999999997E-2</v>
       </c>
@@ -17058,10 +17962,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17073,10 +17977,10 @@
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -17099,14 +18003,17 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <f>(0.325188+0.367946+0.316995)/3</f>
         <v>0.33670966666666668</v>
       </c>
@@ -17114,12 +18021,20 @@
         <f>(0.133132+0.138554+0.141736)/3</f>
         <v>0.13780733333333331</v>
       </c>
+      <c r="E2" s="4">
+        <f>(0.009084+0.010396+0.003022)/3</f>
+        <v>7.5006666666666668E-3</v>
+      </c>
+      <c r="H2" s="4">
+        <f>(0.001023+0.001021+0.002367)/3</f>
+        <v>1.4703333333333333E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <f>(1.52425+1.63456+1.52828)/3</f>
         <v>1.5623633333333331</v>
       </c>
@@ -17127,12 +18042,20 @@
         <f>(0.547077+0.553206+0.741043)/3</f>
         <v>0.61377533333333334</v>
       </c>
+      <c r="E3" s="4">
+        <f>(0.015726+0.01345+0.014465)/3</f>
+        <v>1.4546999999999999E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <f>(0.004381+0.007068+0.006065)/3</f>
+        <v>5.8380000000000003E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f>(5.53739+5.55585+5.68751)/3</f>
         <v>5.593583333333334</v>
       </c>
@@ -17140,12 +18063,20 @@
         <f>(2.27114+2.26733+2.32981)/3</f>
         <v>2.2894266666666669</v>
       </c>
+      <c r="E4" s="4">
+        <f>(0.026633+0.031328+0.02371)/3</f>
+        <v>2.7223666666666663E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <f>(0.0084+0.00791+0.006059)/3</f>
+        <v>7.456333333333333E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <f>(22.768+22.2722+22.102)/3</f>
         <v>22.380733333333335</v>
       </c>
@@ -17153,18 +18084,34 @@
         <f>(9.1501+9.11789+9.45372)/3</f>
         <v>9.24057</v>
       </c>
+      <c r="E5" s="4">
+        <f>(0.052174+0.048516+0.065311)/3</f>
+        <v>5.533366666666667E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <f>(0.045114+0.020927+0.017715)/3</f>
+        <v>2.7918666666666665E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <f>(34.6919+35.3491+37.6816)/3</f>
         <v>35.907533333333333</v>
       </c>
       <c r="C6">
         <f>(14.2188+14.4099+14.4099)/3</f>
         <v>14.346200000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <f>(0.079119+0.07005+0.128412)/3</f>
+        <v>9.2526999999999984E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <f>(0.032864+0.02454+0.028142)/3</f>
+        <v>2.8515333333333334E-2</v>
       </c>
     </row>
   </sheetData>
@@ -17181,10 +18128,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17197,9 +18144,10 @@
     <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -17222,30 +18170,33 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
       </c>
@@ -17264,10 +18215,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17280,9 +18231,10 @@
     <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -17305,30 +18257,33 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
       </c>
@@ -17347,10 +18302,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17363,9 +18318,10 @@
     <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -17388,30 +18344,33 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
       </c>
@@ -17430,10 +18389,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17446,9 +18405,10 @@
     <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -17471,30 +18431,33 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
       </c>
@@ -17513,10 +18476,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17529,9 +18492,10 @@
     <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -17554,30 +18518,33 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
       </c>

--- a/files/Rev00_DataGraphics_PTBR.xlsx
+++ b/files/Rev00_DataGraphics_PTBR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e359efc7a6f442/Desktop/Enari/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="292" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{148554A7-2D31-4732-A7C2-25E14B669D9C}"/>
+  <xr:revisionPtr revIDLastSave="347" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{258DF84B-937A-4F43-9893-AC2838FCBC48}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="10" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste" sheetId="1" state="hidden" r:id="rId1"/>
@@ -43,6 +43,40 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mateus Gabriel de Paula</author>
+  </authors>
+  <commentList>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{70D99DE6-2304-4C21-A31E-9C4437B581A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mateus Gabriel de Paula:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Esse bagulho é tão pequeno, que dentro da verificação de código ele acaba aparecendo como 0 para quando está ordenado.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -102,15 +136,28 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -144,26 +191,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4290,10 +4340,22 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'!Ordenados'!$I$2:$I$6</c:f>
+              <c:f>'!Ordenados'!$I$3:$I$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1869999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6253333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8609999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5896666666666664E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5288,8 +5350,23 @@
             <c:numRef>
               <c:f>Aleatório!$I$2:$I$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.3483333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5823333333333336E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7309999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5363333333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5510000000000004E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -16577,15 +16654,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16882,7 +16959,7 @@
   <autoFilter ref="A1:I6" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BB7217C-59F8-4792-9EA0-0720D6D8B12E}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{D3407327-A185-4351-A55C-14014B1B867D}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{85C71698-96C8-48BF-9E4F-A31F4588E93A}" name="SelectionSort"/>
     <tableColumn id="5" xr3:uid="{D89F0557-14DD-46AD-9565-6B8B49785A1D}" name="MergeSort"/>
@@ -16901,9 +16978,9 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C1F8DEBA-C1C8-4F0D-B5A8-25CE5185E617}" name="Tamanho"/>
     <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort"/>
-    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort"/>
-    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort"/>
     <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="4"/>
@@ -16924,8 +17001,8 @@
     <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{8F5D90A6-8E0B-4E1B-8D02-4E5B09ACDCA0}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{59D8846C-91B6-4237-BE54-A17E0A509527}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort"/>
+    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17608,8 +17685,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17695,7 +17772,7 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -17791,14 +17868,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2EE735-79F3-4DD9-AADC-FE4AC437BF10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2EE735-79F3-4DD9-AADC-FE4AC437BF10}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17863,6 +17940,9 @@
         <f>(0.004854+0.005872+0.005069)/3</f>
         <v>5.2649999999999997E-3</v>
       </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -17884,6 +17964,10 @@
         <f>(0.005196+0.005353+0.007827)/3</f>
         <v>6.1253333333333333E-3</v>
       </c>
+      <c r="I3" s="4">
+        <f>(0.000514+0.001021+0.002026)/3</f>
+        <v>1.1869999999999999E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -17905,6 +17989,10 @@
         <f>(0.015147+0.012408+0.016693)/3</f>
         <v>1.4749333333333335E-2</v>
       </c>
+      <c r="I4" s="4">
+        <f>(0.002008+0.003846+0.002022)/3</f>
+        <v>2.6253333333333333E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -17926,6 +18014,10 @@
         <f>(0.020408+0.022819+0.018321)/3</f>
         <v>2.0516000000000003E-2</v>
       </c>
+      <c r="I5" s="4">
+        <f>(0.003507+0.004038+0.004038)/3</f>
+        <v>3.8609999999999998E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -17947,12 +18039,17 @@
         <f>(0.022816 + 0.024383 + 0.023301)/3</f>
         <v>2.3499999999999997E-2</v>
       </c>
+      <c r="I6" s="4">
+        <f>(0.003706+0.006325+0.003738)/3</f>
+        <v>4.5896666666666664E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -17965,7 +18062,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18029,6 +18126,10 @@
         <f>(0.001023+0.001021+0.002367)/3</f>
         <v>1.4703333333333333E-3</v>
       </c>
+      <c r="I2" s="4">
+        <f>(0.002024+0.002021+0)/3</f>
+        <v>1.3483333333333333E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -18050,6 +18151,10 @@
         <f>(0.004381+0.007068+0.006065)/3</f>
         <v>5.8380000000000003E-3</v>
       </c>
+      <c r="I3" s="4">
+        <f>(0.005734+0+0.002013)/3</f>
+        <v>2.5823333333333336E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -18071,6 +18176,10 @@
         <f>(0.0084+0.00791+0.006059)/3</f>
         <v>7.456333333333333E-3</v>
       </c>
+      <c r="I4" s="4">
+        <f>(0.002017+0.002021+0.007155)/3</f>
+        <v>3.7309999999999999E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -18092,6 +18201,10 @@
         <f>(0.045114+0.020927+0.017715)/3</f>
         <v>2.7918666666666665E-2</v>
       </c>
+      <c r="I5" s="4">
+        <f>(0.004038+0.005162+0.004409)/3</f>
+        <v>4.5363333333333332E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -18112,6 +18225,10 @@
       <c r="H6" s="4">
         <f>(0.032864+0.02454+0.028142)/3</f>
         <v>2.8515333333333334E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <f>(0.0054+0.005276+0.005977)/3</f>
+        <v>5.5510000000000004E-3</v>
       </c>
     </row>
   </sheetData>

--- a/files/Rev00_DataGraphics_PTBR.xlsx
+++ b/files/Rev00_DataGraphics_PTBR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e359efc7a6f442/Desktop/Enari/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="347" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{258DF84B-937A-4F43-9893-AC2838FCBC48}"/>
+  <xr:revisionPtr revIDLastSave="379" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5474F7F-7D64-419B-ADF1-82071934F2C0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste" sheetId="1" state="hidden" r:id="rId1"/>
@@ -196,9 +196,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -211,12 +223,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -3915,8 +3921,23 @@
             <c:numRef>
               <c:f>'!Ordenados'!$D$2:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.13923633333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56267333333333325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3449766666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2576999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.655766666666667</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4921,8 +4942,23 @@
             <c:numRef>
               <c:f>Aleatório!$D$2:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.13282766666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53424633333333338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2063666666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9095800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.731233333333334</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -16959,7 +16995,7 @@
   <autoFilter ref="A1:I6" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BB7217C-59F8-4792-9EA0-0720D6D8B12E}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{D3407327-A185-4351-A55C-14014B1B867D}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{85C71698-96C8-48BF-9E4F-A31F4588E93A}" name="SelectionSort"/>
     <tableColumn id="5" xr3:uid="{D89F0557-14DD-46AD-9565-6B8B49785A1D}" name="MergeSort"/>
@@ -16978,12 +17014,12 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C1F8DEBA-C1C8-4F0D-B5A8-25CE5185E617}" name="Tamanho"/>
     <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort"/>
-    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort"/>
-    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort"/>
-    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="8"/>
     <tableColumn id="8" xr3:uid="{1AF9EE2E-6E80-48E6-A0EA-B411C6533961}" name="CoutingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16995,14 +17031,14 @@
   <autoFilter ref="A1:I6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{88AB9604-3310-46A1-AD70-21C2608B01C8}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{277890D8-FE28-4EFB-A704-7CA343850008}" name="InsertionSort"/>
-    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort"/>
-    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{8F5D90A6-8E0B-4E1B-8D02-4E5B09ACDCA0}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{59D8846C-91B6-4237-BE54-A17E0A509527}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17772,7 +17808,7 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -17875,7 +17911,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17932,6 +17968,10 @@
         <f>(0.28909+0.278629+0.290539)/3</f>
         <v>0.28608600000000001</v>
       </c>
+      <c r="D2" s="3">
+        <f>(0.151862+0.138773+0.127074)/3</f>
+        <v>0.13923633333333332</v>
+      </c>
       <c r="E2" s="4">
         <f>(0.006058 + 0.006755 + 0.008648)/3</f>
         <v>7.1536666666666667E-3</v>
@@ -17956,6 +17996,10 @@
         <f>(1.2161+1.14851+1.23443)/3</f>
         <v>1.1996799999999999</v>
       </c>
+      <c r="D3" s="3">
+        <f>(0.56296+0.569012+0.556048)/3</f>
+        <v>0.56267333333333325</v>
+      </c>
       <c r="E3" s="4">
         <f>(0.032114 + 0.017049 + 0.015367)/3</f>
         <v>2.1510000000000001E-2</v>
@@ -17981,6 +18025,10 @@
         <f>(4.75831+4.64676+4.58611)/3</f>
         <v>4.6637266666666664</v>
       </c>
+      <c r="D4" s="3">
+        <f>(2.38666+2.29391+2.35436)/3</f>
+        <v>2.3449766666666663</v>
+      </c>
       <c r="E4" s="4">
         <f>(0.025146 + 0.031812 + 0.026544)/3</f>
         <v>2.7834000000000001E-2</v>
@@ -18006,6 +18054,10 @@
         <f>(19.0952+18.4903+18.6158)/3</f>
         <v>18.733766666666664</v>
       </c>
+      <c r="D5" s="3">
+        <f>(9.47137+9.1157+9.18603)/3</f>
+        <v>9.2576999999999998</v>
+      </c>
       <c r="E5" s="4">
         <f>(0.077793 + 0.082077 + 0.042202)/3</f>
         <v>6.7357333333333338E-2</v>
@@ -18030,6 +18082,10 @@
       <c r="C6" s="3">
         <f>(29.7728+28.9981+29.5358)/3</f>
         <v>29.435566666666663</v>
+      </c>
+      <c r="D6" s="3">
+        <f>(14.4914+15.2387+14.2372)/3</f>
+        <v>14.655766666666667</v>
       </c>
       <c r="E6" s="4">
         <f>(0.081262 + 0.065537 + 0.065712)/3</f>
@@ -18061,8 +18117,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18118,6 +18174,10 @@
         <f>(0.133132+0.138554+0.141736)/3</f>
         <v>0.13780733333333331</v>
       </c>
+      <c r="D2" s="2">
+        <f>(0.136645+0.141604+0.120234)/3</f>
+        <v>0.13282766666666665</v>
+      </c>
       <c r="E2" s="4">
         <f>(0.009084+0.010396+0.003022)/3</f>
         <v>7.5006666666666668E-3</v>
@@ -18143,6 +18203,10 @@
         <f>(0.547077+0.553206+0.741043)/3</f>
         <v>0.61377533333333334</v>
       </c>
+      <c r="D3" s="2">
+        <f>(0.523142+0.539128+0.540469)/3</f>
+        <v>0.53424633333333338</v>
+      </c>
       <c r="E3" s="4">
         <f>(0.015726+0.01345+0.014465)/3</f>
         <v>1.4546999999999999E-2</v>
@@ -18168,6 +18232,10 @@
         <f>(2.27114+2.26733+2.32981)/3</f>
         <v>2.2894266666666669</v>
       </c>
+      <c r="D4" s="2">
+        <f>(2.25229+2.18136+2.18545)/3</f>
+        <v>2.2063666666666664</v>
+      </c>
       <c r="E4" s="4">
         <f>(0.026633+0.031328+0.02371)/3</f>
         <v>2.7223666666666663E-2</v>
@@ -18193,6 +18261,10 @@
         <f>(9.1501+9.11789+9.45372)/3</f>
         <v>9.24057</v>
       </c>
+      <c r="D5" s="2">
+        <f>(8.6315+9.39593+8.70131)/3</f>
+        <v>8.9095800000000001</v>
+      </c>
       <c r="E5" s="4">
         <f>(0.052174+0.048516+0.065311)/3</f>
         <v>5.533366666666667E-2</v>
@@ -18217,6 +18289,10 @@
       <c r="C6">
         <f>(14.2188+14.4099+14.4099)/3</f>
         <v>14.346200000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <f>(14.0817+13.5768+13.5352)/3</f>
+        <v>13.731233333333334</v>
       </c>
       <c r="E6" s="4">
         <f>(0.079119+0.07005+0.128412)/3</f>

--- a/files/Rev00_DataGraphics_PTBR.xlsx
+++ b/files/Rev00_DataGraphics_PTBR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e359efc7a6f442/Desktop/Enari/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5474F7F-7D64-419B-ADF1-82071934F2C0}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1477AA46-2FAA-4F8F-A6EC-41BB7A1D21A8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
   </bookViews>
@@ -134,9 +134,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -186,19 +187,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -207,22 +227,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <fill>
@@ -4186,8 +4191,14 @@
             <c:numRef>
               <c:f>'!Ordenados'!$G$2:$G$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.4443333333333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5646666666666665E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -16995,7 +17006,7 @@
   <autoFilter ref="A1:I6" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BB7217C-59F8-4792-9EA0-0720D6D8B12E}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{D3407327-A185-4351-A55C-14014B1B867D}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{85C71698-96C8-48BF-9E4F-A31F4588E93A}" name="SelectionSort"/>
     <tableColumn id="5" xr3:uid="{D89F0557-14DD-46AD-9565-6B8B49785A1D}" name="MergeSort"/>
@@ -17014,12 +17025,12 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C1F8DEBA-C1C8-4F0D-B5A8-25CE5185E617}" name="Tamanho"/>
     <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort"/>
-    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort"/>
-    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort"/>
-    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{1AF9EE2E-6E80-48E6-A0EA-B411C6533961}" name="CoutingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17031,14 +17042,14 @@
   <autoFilter ref="A1:I6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{88AB9604-3310-46A1-AD70-21C2608B01C8}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{277890D8-FE28-4EFB-A704-7CA343850008}" name="InsertionSort"/>
-    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{8F5D90A6-8E0B-4E1B-8D02-4E5B09ACDCA0}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{59D8846C-91B6-4237-BE54-A17E0A509527}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17911,7 +17922,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17976,6 +17987,10 @@
         <f>(0.006058 + 0.006755 + 0.008648)/3</f>
         <v>7.1536666666666667E-3</v>
       </c>
+      <c r="G2" s="5">
+        <f>(0.002001+0.003001+0.002331)/3</f>
+        <v>2.4443333333333335E-3</v>
+      </c>
       <c r="H2" s="2">
         <f>(0.004854+0.005872+0.005069)/3</f>
         <v>5.2649999999999997E-3</v>
@@ -18004,6 +18019,10 @@
         <f>(0.032114 + 0.017049 + 0.015367)/3</f>
         <v>2.1510000000000001E-2</v>
       </c>
+      <c r="G3" s="5">
+        <f>(0.005371+0.002516+0.005807)/3</f>
+        <v>4.5646666666666665E-3</v>
+      </c>
       <c r="H3" s="2">
         <f>(0.005196+0.005353+0.007827)/3</f>
         <v>6.1253333333333333E-3</v>
@@ -18033,6 +18052,7 @@
         <f>(0.025146 + 0.031812 + 0.026544)/3</f>
         <v>2.7834000000000001E-2</v>
       </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="2">
         <f>(0.015147+0.012408+0.016693)/3</f>
         <v>1.4749333333333335E-2</v>
@@ -18062,6 +18082,7 @@
         <f>(0.077793 + 0.082077 + 0.042202)/3</f>
         <v>6.7357333333333338E-2</v>
       </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="2">
         <f>(0.020408+0.022819+0.018321)/3</f>
         <v>2.0516000000000003E-2</v>
@@ -18091,6 +18112,7 @@
         <f>(0.081262 + 0.065537 + 0.065712)/3</f>
         <v>7.0836999999999997E-2</v>
       </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="2">
         <f>(0.022816 + 0.024383 + 0.023301)/3</f>
         <v>2.3499999999999997E-2</v>
@@ -18118,7 +18140,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/files/Rev00_DataGraphics_PTBR.xlsx
+++ b/files/Rev00_DataGraphics_PTBR.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="388" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1477AA46-2FAA-4F8F-A6EC-41BB7A1D21A8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste" sheetId="1" state="hidden" r:id="rId1"/>
@@ -137,7 +137,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -193,18 +193,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
@@ -219,6 +213,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -17029,8 +17029,8 @@
     <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort"/>
-    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="5"/>
     <tableColumn id="8" xr3:uid="{1AF9EE2E-6E80-48E6-A0EA-B411C6533961}" name="CoutingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17042,14 +17042,14 @@
   <autoFilter ref="A1:I6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{88AB9604-3310-46A1-AD70-21C2608B01C8}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{277890D8-FE28-4EFB-A704-7CA343850008}" name="InsertionSort"/>
-    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{8F5D90A6-8E0B-4E1B-8D02-4E5B09ACDCA0}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{59D8846C-91B6-4237-BE54-A17E0A509527}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17921,8 +17921,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18139,8 +18139,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/files/Rev00_DataGraphics_PTBR.xlsx
+++ b/files/Rev00_DataGraphics_PTBR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e359efc7a6f442/Desktop/Enari/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="388" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1477AA46-2FAA-4F8F-A6EC-41BB7A1D21A8}"/>
+  <xr:revisionPtr revIDLastSave="403" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48299BB-2534-48F0-9292-D234178176EC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
   </bookViews>
@@ -198,7 +198,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
@@ -4022,21 +4025,6 @@
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>7.1536666666666667E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1510000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7834000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.7357333333333338E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0836999999999997E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5791,6 +5779,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5870,6 +5873,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -17006,7 +17024,7 @@
   <autoFilter ref="A1:I6" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BB7217C-59F8-4792-9EA0-0720D6D8B12E}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{D3407327-A185-4351-A55C-14014B1B867D}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{85C71698-96C8-48BF-9E4F-A31F4588E93A}" name="SelectionSort"/>
     <tableColumn id="5" xr3:uid="{D89F0557-14DD-46AD-9565-6B8B49785A1D}" name="MergeSort"/>
@@ -17025,12 +17043,12 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C1F8DEBA-C1C8-4F0D-B5A8-25CE5185E617}" name="Tamanho"/>
     <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort"/>
-    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort"/>
-    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="6"/>
     <tableColumn id="8" xr3:uid="{1AF9EE2E-6E80-48E6-A0EA-B411C6533961}" name="CoutingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17042,14 +17060,14 @@
   <autoFilter ref="A1:I6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{88AB9604-3310-46A1-AD70-21C2608B01C8}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{277890D8-FE28-4EFB-A704-7CA343850008}" name="InsertionSort"/>
-    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{8F5D90A6-8E0B-4E1B-8D02-4E5B09ACDCA0}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{59D8846C-91B6-4237-BE54-A17E0A509527}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17063,7 +17081,7 @@
     <tableColumn id="2" xr3:uid="{992F9C0B-6668-4206-8062-5710FE0429D1}" name="BubbleSort"/>
     <tableColumn id="3" xr3:uid="{EFA1803E-44E3-404F-87D9-65CCBEE1A3DE}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{A829DF70-6B9C-49B0-870B-D8A3FCDFF1FC}" name="SelectionSort"/>
-    <tableColumn id="5" xr3:uid="{EECD94D9-E658-432D-87FC-A98B3E2C2645}" name="MergeSort"/>
+    <tableColumn id="5" xr3:uid="{EECD94D9-E658-432D-87FC-A98B3E2C2645}" name="MergeSort" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{ACF4646F-3D62-4D2C-AFE7-17C20339F4C3}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{0B50FEDD-0752-47C3-ABE3-0D8374A536C0}" name="HeapSort"/>
     <tableColumn id="8" xr3:uid="{C8222E89-0ECB-433B-90A5-CBD88DB6FE41}" name="RadixSort"/>
@@ -17922,7 +17940,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17983,10 +18001,7 @@
         <f>(0.151862+0.138773+0.127074)/3</f>
         <v>0.13923633333333332</v>
       </c>
-      <c r="E2" s="4">
-        <f>(0.006058 + 0.006755 + 0.008648)/3</f>
-        <v>7.1536666666666667E-3</v>
-      </c>
+      <c r="E2" s="4"/>
       <c r="G2" s="5">
         <f>(0.002001+0.003001+0.002331)/3</f>
         <v>2.4443333333333335E-3</v>
@@ -18015,10 +18030,7 @@
         <f>(0.56296+0.569012+0.556048)/3</f>
         <v>0.56267333333333325</v>
       </c>
-      <c r="E3" s="4">
-        <f>(0.032114 + 0.017049 + 0.015367)/3</f>
-        <v>2.1510000000000001E-2</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="G3" s="5">
         <f>(0.005371+0.002516+0.005807)/3</f>
         <v>4.5646666666666665E-3</v>
@@ -18048,10 +18060,7 @@
         <f>(2.38666+2.29391+2.35436)/3</f>
         <v>2.3449766666666663</v>
       </c>
-      <c r="E4" s="4">
-        <f>(0.025146 + 0.031812 + 0.026544)/3</f>
-        <v>2.7834000000000001E-2</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="G4" s="5"/>
       <c r="H4" s="2">
         <f>(0.015147+0.012408+0.016693)/3</f>
@@ -18078,10 +18087,7 @@
         <f>(9.47137+9.1157+9.18603)/3</f>
         <v>9.2576999999999998</v>
       </c>
-      <c r="E5" s="4">
-        <f>(0.077793 + 0.082077 + 0.042202)/3</f>
-        <v>6.7357333333333338E-2</v>
-      </c>
+      <c r="E5" s="4"/>
       <c r="G5" s="5"/>
       <c r="H5" s="2">
         <f>(0.020408+0.022819+0.018321)/3</f>
@@ -18108,10 +18114,7 @@
         <f>(14.4914+15.2387+14.2372)/3</f>
         <v>14.655766666666667</v>
       </c>
-      <c r="E6" s="4">
-        <f>(0.081262 + 0.065537 + 0.065712)/3</f>
-        <v>7.0836999999999997E-2</v>
-      </c>
+      <c r="E6" s="4"/>
       <c r="G6" s="5"/>
       <c r="H6" s="2">
         <f>(0.022816 + 0.024383 + 0.023301)/3</f>
@@ -18395,25 +18398,55 @@
       <c r="A2">
         <v>10000</v>
       </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -18433,7 +18466,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/files/Rev00_DataGraphics_PTBR.xlsx
+++ b/files/Rev00_DataGraphics_PTBR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e359efc7a6f442/Desktop/Enari/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="403" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48299BB-2534-48F0-9292-D234178176EC}"/>
+  <xr:revisionPtr revIDLastSave="436" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B39A392E-07F2-4B73-B58D-588C454467BC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste" sheetId="1" state="hidden" r:id="rId1"/>
@@ -200,6 +200,9 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -222,9 +225,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -3042,6 +3042,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.8163333333333331E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5051333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5155E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8298666666666663E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8790666666666658E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4025,6 +4040,21 @@
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.8253333333333325E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3515666666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4974E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6310666666666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5719666666666676E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4401,6 +4431,7 @@
         <c:axId val="1747346863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -16678,15 +16709,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17045,10 +17076,10 @@
     <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort"/>
     <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort"/>
-    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="7"/>
     <tableColumn id="8" xr3:uid="{1AF9EE2E-6E80-48E6-A0EA-B411C6533961}" name="CoutingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17060,14 +17091,14 @@
   <autoFilter ref="A1:I6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{88AB9604-3310-46A1-AD70-21C2608B01C8}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{277890D8-FE28-4EFB-A704-7CA343850008}" name="InsertionSort"/>
-    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{8F5D90A6-8E0B-4E1B-8D02-4E5B09ACDCA0}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{59D8846C-91B6-4237-BE54-A17E0A509527}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17081,7 +17112,7 @@
     <tableColumn id="2" xr3:uid="{992F9C0B-6668-4206-8062-5710FE0429D1}" name="BubbleSort"/>
     <tableColumn id="3" xr3:uid="{EFA1803E-44E3-404F-87D9-65CCBEE1A3DE}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{A829DF70-6B9C-49B0-870B-D8A3FCDFF1FC}" name="SelectionSort"/>
-    <tableColumn id="5" xr3:uid="{EECD94D9-E658-432D-87FC-A98B3E2C2645}" name="MergeSort" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{EECD94D9-E658-432D-87FC-A98B3E2C2645}" name="MergeSort" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{ACF4646F-3D62-4D2C-AFE7-17C20339F4C3}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{0B50FEDD-0752-47C3-ABE3-0D8374A536C0}" name="HeapSort"/>
     <tableColumn id="8" xr3:uid="{C8222E89-0ECB-433B-90A5-CBD88DB6FE41}" name="RadixSort"/>
@@ -17837,8 +17868,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17889,6 +17920,10 @@
       <c r="B2" s="1">
         <v>2.0309999999999998E-3</v>
       </c>
+      <c r="E2">
+        <f>(0.006045+0.004368+0.004036)/3</f>
+        <v>4.8163333333333331E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -17897,6 +17932,10 @@
       <c r="B3" s="1">
         <v>3.0690000000000001E-3</v>
       </c>
+      <c r="E3">
+        <f>(0.017115+0.012116+0.015923)/3</f>
+        <v>1.5051333333333333E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -17905,6 +17944,10 @@
       <c r="B4" s="1">
         <v>5.1830000000000001E-3</v>
       </c>
+      <c r="E4">
+        <f>(0.025742+0.026481+0.023242)/3</f>
+        <v>2.5155E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -17913,6 +17956,10 @@
       <c r="B5" s="1">
         <v>2.0179999999999998E-3</v>
       </c>
+      <c r="E5">
+        <f>(0.049628+0.047307+0.047961)/3</f>
+        <v>4.8298666666666663E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -17921,6 +17968,10 @@
       <c r="B6" s="1">
         <f>(0.002015+0.002007)/2</f>
         <v>2.0109999999999998E-3</v>
+      </c>
+      <c r="E6">
+        <f>(0.059528+0.053335+0.063509)/3</f>
+        <v>5.8790666666666658E-2</v>
       </c>
     </row>
   </sheetData>
@@ -17939,8 +17990,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18001,7 +18052,10 @@
         <f>(0.151862+0.138773+0.127074)/3</f>
         <v>0.13923633333333332</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4">
+        <f>(0.005387+0.006061+0.006028)/3</f>
+        <v>5.8253333333333325E-3</v>
+      </c>
       <c r="G2" s="5">
         <f>(0.002001+0.003001+0.002331)/3</f>
         <v>2.4443333333333335E-3</v>
@@ -18030,7 +18084,10 @@
         <f>(0.56296+0.569012+0.556048)/3</f>
         <v>0.56267333333333325</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <f>(0.011615+0.01313+0.015802)/3</f>
+        <v>1.3515666666666667E-2</v>
+      </c>
       <c r="G3" s="5">
         <f>(0.005371+0.002516+0.005807)/3</f>
         <v>4.5646666666666665E-3</v>
@@ -18060,7 +18117,10 @@
         <f>(2.38666+2.29391+2.35436)/3</f>
         <v>2.3449766666666663</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <f>(0.022722+0.023961+0.028239)/3</f>
+        <v>2.4974E-2</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="2">
         <f>(0.015147+0.012408+0.016693)/3</f>
@@ -18087,7 +18147,10 @@
         <f>(9.47137+9.1157+9.18603)/3</f>
         <v>9.2576999999999998</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4">
+        <f>(0.061942+0.053101+0.053889)/3</f>
+        <v>5.6310666666666669E-2</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="2">
         <f>(0.020408+0.022819+0.018321)/3</f>
@@ -18114,7 +18177,10 @@
         <f>(14.4914+15.2387+14.2372)/3</f>
         <v>14.655766666666667</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <f>(0.059484+0.070161+0.067514)/3</f>
+        <v>6.5719666666666676E-2</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="2">
         <f>(0.022816 + 0.024383 + 0.023301)/3</f>

--- a/files/Rev00_DataGraphics_PTBR.xlsx
+++ b/files/Rev00_DataGraphics_PTBR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e359efc7a6f442/Desktop/Enari/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="436" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B39A392E-07F2-4B73-B58D-588C454467BC}"/>
+  <xr:revisionPtr revIDLastSave="464" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F92BFC5B-5578-4BBE-B666-F11DBFC05399}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste" sheetId="1" state="hidden" r:id="rId1"/>
@@ -46,6 +46,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mateus Gabriel de Paula</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{E31E7F89-5C9E-4C58-93BA-4FC10F18B702}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mateus Gabriel de Paula:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Esse caso é um pouco mais complicado porque ele é inconclusivo, pois ele varia entre 0 e esses valores, então acredito que seja 0 o valor, já que com 100k, ele acaba parando indo para 0.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Mateus Gabriel de Paula</author>
@@ -200,9 +234,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -225,6 +256,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -924,6 +958,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>49995000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199990000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>799980000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3199960000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4999950000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1003,6 +1052,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50004999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200009999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800019999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3200039999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000049999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1858,6 +1922,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>49988071</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199971955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>799928277</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3199818372</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4999529555</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1937,6 +2016,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24881446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100198747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>399665715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600967093</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500575302</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4493,6 +4587,7 @@
       <c:valAx>
         <c:axId val="1747348303"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4713,7 +4808,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.5203856704770214E-2"/>
+          <c:y val="0.25333659123029201"/>
+          <c:w val="0.88940942187154737"/>
+          <c:h val="0.68838835049464986"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -5458,6 +5563,8 @@
         <c:axId val="1892575823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100000"/>
+          <c:min val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5483,7 +5590,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -5493,11 +5600,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5519,6 +5626,7 @@
       <c:valAx>
         <c:axId val="1892576303"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6793,6 +6901,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6872,6 +6995,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7265,6 +7403,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7727,6 +7880,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>49995000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199990000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>799980000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3199960000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4999950000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7806,6 +7974,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50004999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200009999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800019999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3200039999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000049999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8661,6 +8844,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24871447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100178748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>399625716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600887094</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500475303</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8740,6 +8938,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24881446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100198747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>399665715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600967093</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500575302</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9595,6 +9808,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9674,6 +9902,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10067,6 +10310,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -16757,8 +17015,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17076,10 +17334,10 @@
     <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort"/>
     <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort"/>
-    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="6"/>
     <tableColumn id="8" xr3:uid="{1AF9EE2E-6E80-48E6-A0EA-B411C6533961}" name="CoutingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17091,14 +17349,14 @@
   <autoFilter ref="A1:I6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{88AB9604-3310-46A1-AD70-21C2608B01C8}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{277890D8-FE28-4EFB-A704-7CA343850008}" name="InsertionSort"/>
-    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{8F5D90A6-8E0B-4E1B-8D02-4E5B09ACDCA0}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{59D8846C-91B6-4237-BE54-A17E0A509527}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17112,7 +17370,7 @@
     <tableColumn id="2" xr3:uid="{992F9C0B-6668-4206-8062-5710FE0429D1}" name="BubbleSort"/>
     <tableColumn id="3" xr3:uid="{EFA1803E-44E3-404F-87D9-65CCBEE1A3DE}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{A829DF70-6B9C-49B0-870B-D8A3FCDFF1FC}" name="SelectionSort"/>
-    <tableColumn id="5" xr3:uid="{EECD94D9-E658-432D-87FC-A98B3E2C2645}" name="MergeSort" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{EECD94D9-E658-432D-87FC-A98B3E2C2645}" name="MergeSort" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{ACF4646F-3D62-4D2C-AFE7-17C20339F4C3}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{0B50FEDD-0752-47C3-ABE3-0D8374A536C0}" name="HeapSort"/>
     <tableColumn id="8" xr3:uid="{C8222E89-0ECB-433B-90A5-CBD88DB6FE41}" name="RadixSort"/>
@@ -17695,7 +17953,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B2" sqref="B2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17744,25 +18002,55 @@
       <c r="A2">
         <v>10000</v>
       </c>
+      <c r="B2">
+        <v>49995000</v>
+      </c>
+      <c r="C2">
+        <v>50004999</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
+      <c r="B3">
+        <v>199990000</v>
+      </c>
+      <c r="C3">
+        <v>200009999</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
+      <c r="B4">
+        <v>799980000</v>
+      </c>
+      <c r="C4">
+        <v>800019999</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
+      <c r="B5">
+        <v>3199960000</v>
+      </c>
+      <c r="C5">
+        <v>3200039999</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
+      </c>
+      <c r="B6">
+        <v>4999950000</v>
+      </c>
+      <c r="C6">
+        <v>5000049999</v>
       </c>
     </row>
   </sheetData>
@@ -17782,7 +18070,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17831,25 +18119,55 @@
       <c r="A2">
         <v>10000</v>
       </c>
+      <c r="B2">
+        <v>49988071</v>
+      </c>
+      <c r="C2">
+        <v>24881446</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
+      <c r="B3">
+        <v>199971955</v>
+      </c>
+      <c r="C3">
+        <v>100198747</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
+      <c r="B4">
+        <v>799928277</v>
+      </c>
+      <c r="C4">
+        <v>399665715</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
+      <c r="B5">
+        <v>3199818372</v>
+      </c>
+      <c r="C5">
+        <v>1600967093</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
+      </c>
+      <c r="B6">
+        <v>4999529555</v>
+      </c>
+      <c r="C6">
+        <v>2500575302</v>
       </c>
     </row>
   </sheetData>
@@ -17862,14 +18180,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE87D0C9-37AD-4CF6-938F-DD4554ED3D36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE87D0C9-37AD-4CF6-938F-DD4554ED3D36}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17977,8 +18295,9 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -17990,8 +18309,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18208,8 +18527,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18532,7 +18851,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18581,25 +18900,70 @@
       <c r="A2">
         <v>10000</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>9999</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>19999</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>39999</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>79999</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>99999</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18619,7 +18983,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B2" sqref="B2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18668,25 +19032,55 @@
       <c r="A2">
         <v>10000</v>
       </c>
+      <c r="B2">
+        <v>49995000</v>
+      </c>
+      <c r="C2">
+        <v>50004999</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
+      <c r="B3">
+        <v>199990000</v>
+      </c>
+      <c r="C3">
+        <v>200009999</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
+      <c r="B4">
+        <v>799980000</v>
+      </c>
+      <c r="C4">
+        <v>800019999</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
+      <c r="B5">
+        <v>3199960000</v>
+      </c>
+      <c r="C5">
+        <v>3200039999</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
+      </c>
+      <c r="B6">
+        <v>4999950000</v>
+      </c>
+      <c r="C6">
+        <v>5000049999</v>
       </c>
     </row>
   </sheetData>
@@ -18706,7 +19100,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B2" sqref="B2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18755,25 +19149,55 @@
       <c r="A2">
         <v>10000</v>
       </c>
+      <c r="B2">
+        <v>24871447</v>
+      </c>
+      <c r="C2">
+        <v>24881446</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
+      <c r="B3">
+        <v>100178748</v>
+      </c>
+      <c r="C3">
+        <v>100198747</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
+      <c r="B4">
+        <v>399625716</v>
+      </c>
+      <c r="C4">
+        <v>399665715</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
+      <c r="B5">
+        <v>1600887094</v>
+      </c>
+      <c r="C5">
+        <v>1600967093</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
+      </c>
+      <c r="B6">
+        <v>2500475303</v>
+      </c>
+      <c r="C6">
+        <v>2500575302</v>
       </c>
     </row>
   </sheetData>
@@ -18793,7 +19217,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18842,25 +19266,70 @@
       <c r="A2">
         <v>10000</v>
       </c>
+      <c r="B2">
+        <v>9999</v>
+      </c>
+      <c r="C2">
+        <v>9999</v>
+      </c>
+      <c r="H2">
+        <v>9999</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
+      <c r="B3">
+        <v>19999</v>
+      </c>
+      <c r="C3">
+        <v>19999</v>
+      </c>
+      <c r="H3">
+        <v>19999</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
+      <c r="B4">
+        <v>39999</v>
+      </c>
+      <c r="C4">
+        <v>39999</v>
+      </c>
+      <c r="H4">
+        <v>39999</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
+      <c r="B5">
+        <v>79999</v>
+      </c>
+      <c r="C5">
+        <v>79999</v>
+      </c>
+      <c r="H5">
+        <v>79999</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
+      </c>
+      <c r="B6">
+        <v>99999</v>
+      </c>
+      <c r="C6">
+        <v>99999</v>
+      </c>
+      <c r="H6">
+        <v>99999</v>
       </c>
     </row>
   </sheetData>

--- a/files/Rev00_DataGraphics_PTBR.xlsx
+++ b/files/Rev00_DataGraphics_PTBR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e359efc7a6f442/Desktop/Enari/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="464" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F92BFC5B-5578-4BBE-B666-F11DBFC05399}"/>
+  <xr:revisionPtr revIDLastSave="498" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71922F59-0D6A-462E-8AB5-353DA40965E3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
   </bookViews>
@@ -234,6 +234,14 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -265,14 +273,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2887,19 +2887,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0309999999999998E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0690000000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1830000000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0179999999999998E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0109999999999998E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2980,6 +2980,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3136,21 +3151,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.8163333333333331E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5051333333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5155E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8298666666666663E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.8790666666666658E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3853,19 +3853,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.37533833333333333</c:v>
+                  <c:v>0.38360633333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5142666666666669</c:v>
+                  <c:v>1.6809333333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6746633333333323</c:v>
+                  <c:v>6.3064099999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.592433333333332</c:v>
+                  <c:v>25.381833333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.15826666666667</c:v>
+                  <c:v>38.306199999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4892,19 +4892,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.33670966666666668</c:v>
+                  <c:v>0.33885300000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5623633333333331</c:v>
+                  <c:v>1.5815999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.593583333333334</c:v>
+                  <c:v>6.0110533333333338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.380733333333335</c:v>
+                  <c:v>24.943566666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.907533333333333</c:v>
+                  <c:v>38.466466666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17313,7 +17313,7 @@
   <autoFilter ref="A1:I6" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BB7217C-59F8-4792-9EA0-0720D6D8B12E}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{D3407327-A185-4351-A55C-14014B1B867D}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{85C71698-96C8-48BF-9E4F-A31F4588E93A}" name="SelectionSort"/>
     <tableColumn id="5" xr3:uid="{D89F0557-14DD-46AD-9565-6B8B49785A1D}" name="MergeSort"/>
@@ -17332,12 +17332,12 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C1F8DEBA-C1C8-4F0D-B5A8-25CE5185E617}" name="Tamanho"/>
     <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort"/>
-    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="9"/>
     <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort"/>
-    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="7"/>
     <tableColumn id="8" xr3:uid="{1AF9EE2E-6E80-48E6-A0EA-B411C6533961}" name="CoutingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17349,14 +17349,14 @@
   <autoFilter ref="A1:I6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{88AB9604-3310-46A1-AD70-21C2608B01C8}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{277890D8-FE28-4EFB-A704-7CA343850008}" name="InsertionSort"/>
-    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{8F5D90A6-8E0B-4E1B-8D02-4E5B09ACDCA0}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{59D8846C-91B6-4237-BE54-A17E0A509527}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17370,7 +17370,7 @@
     <tableColumn id="2" xr3:uid="{992F9C0B-6668-4206-8062-5710FE0429D1}" name="BubbleSort"/>
     <tableColumn id="3" xr3:uid="{EFA1803E-44E3-404F-87D9-65CCBEE1A3DE}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{A829DF70-6B9C-49B0-870B-D8A3FCDFF1FC}" name="SelectionSort"/>
-    <tableColumn id="5" xr3:uid="{EECD94D9-E658-432D-87FC-A98B3E2C2645}" name="MergeSort" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{EECD94D9-E658-432D-87FC-A98B3E2C2645}" name="MergeSort" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{ACF4646F-3D62-4D2C-AFE7-17C20339F4C3}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{0B50FEDD-0752-47C3-ABE3-0D8374A536C0}" name="HeapSort"/>
     <tableColumn id="8" xr3:uid="{C8222E89-0ECB-433B-90A5-CBD88DB6FE41}" name="RadixSort"/>
@@ -18186,8 +18186,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18236,11 +18236,10 @@
         <v>10000</v>
       </c>
       <c r="B2" s="1">
-        <v>2.0309999999999998E-3</v>
-      </c>
-      <c r="E2">
-        <f>(0.006045+0.004368+0.004036)/3</f>
-        <v>4.8163333333333331E-3</v>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -18248,11 +18247,10 @@
         <v>20000</v>
       </c>
       <c r="B3" s="1">
-        <v>3.0690000000000001E-3</v>
-      </c>
-      <c r="E3">
-        <f>(0.017115+0.012116+0.015923)/3</f>
-        <v>1.5051333333333333E-2</v>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -18260,11 +18258,10 @@
         <v>40000</v>
       </c>
       <c r="B4" s="1">
-        <v>5.1830000000000001E-3</v>
-      </c>
-      <c r="E4">
-        <f>(0.025742+0.026481+0.023242)/3</f>
-        <v>2.5155E-2</v>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -18272,11 +18269,10 @@
         <v>80000</v>
       </c>
       <c r="B5" s="1">
-        <v>2.0179999999999998E-3</v>
-      </c>
-      <c r="E5">
-        <f>(0.049628+0.047307+0.047961)/3</f>
-        <v>4.8298666666666663E-2</v>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -18284,12 +18280,10 @@
         <v>100000</v>
       </c>
       <c r="B6" s="1">
-        <f>(0.002015+0.002007)/2</f>
-        <v>2.0109999999999998E-3</v>
-      </c>
-      <c r="E6">
-        <f>(0.059528+0.053335+0.063509)/3</f>
-        <v>5.8790666666666658E-2</v>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18310,7 +18304,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18360,8 +18354,8 @@
         <v>10000</v>
       </c>
       <c r="B2" s="3">
-        <f>(0.400121 + 0.35489 + 0.371004)/3</f>
-        <v>0.37533833333333333</v>
+        <f>(0.373068+0.367002+0.410749)/3</f>
+        <v>0.38360633333333333</v>
       </c>
       <c r="C2" s="3">
         <f>(0.28909+0.278629+0.290539)/3</f>
@@ -18392,8 +18386,8 @@
         <v>20000</v>
       </c>
       <c r="B3" s="3">
-        <f>(1.59393+1.47473+1.47414)/3</f>
-        <v>1.5142666666666669</v>
+        <f>(1.4979+1.77204+1.77286)/3</f>
+        <v>1.6809333333333332</v>
       </c>
       <c r="C3" s="3">
         <f>(1.2161+1.14851+1.23443)/3</f>
@@ -18425,8 +18419,8 @@
         <v>40000</v>
       </c>
       <c r="B4" s="3">
-        <f>(5.73225 + 5.69743 + 5.59431)/3</f>
-        <v>5.6746633333333323</v>
+        <f>(6.37258+6.40264+6.14401)/3</f>
+        <v>6.3064099999999996</v>
       </c>
       <c r="C4" s="3">
         <f>(4.75831+4.64676+4.58611)/3</f>
@@ -18455,8 +18449,8 @@
         <v>80000</v>
       </c>
       <c r="B5" s="3">
-        <f>(22.6429+22.6126+22.5218)/3</f>
-        <v>22.592433333333332</v>
+        <f>(25.4475+26.1256+24.5724)/3</f>
+        <v>25.381833333333333</v>
       </c>
       <c r="C5" s="3">
         <f>(19.0952+18.4903+18.6158)/3</f>
@@ -18485,8 +18479,8 @@
         <v>100000</v>
       </c>
       <c r="B6" s="3">
-        <f>(35.2107+35.4054+34.8587)/3</f>
-        <v>35.15826666666667</v>
+        <f>(38.7489+38.0342+38.1355)/3</f>
+        <v>38.306199999999997</v>
       </c>
       <c r="C6" s="3">
         <f>(29.7728+28.9981+29.5358)/3</f>
@@ -18527,8 +18521,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18577,8 +18571,8 @@
         <v>10000</v>
       </c>
       <c r="B2" s="3">
-        <f>(0.325188+0.367946+0.316995)/3</f>
-        <v>0.33670966666666668</v>
+        <f>(0.367784+0.317723+0.331052)/3</f>
+        <v>0.33885300000000002</v>
       </c>
       <c r="C2" s="2">
         <f>(0.133132+0.138554+0.141736)/3</f>
@@ -18606,8 +18600,8 @@
         <v>20000</v>
       </c>
       <c r="B3" s="3">
-        <f>(1.52425+1.63456+1.52828)/3</f>
-        <v>1.5623633333333331</v>
+        <f>(1.3813+1.71049+1.65301)/3</f>
+        <v>1.5815999999999999</v>
       </c>
       <c r="C3" s="2">
         <f>(0.547077+0.553206+0.741043)/3</f>
@@ -18635,8 +18629,8 @@
         <v>40000</v>
       </c>
       <c r="B4" s="3">
-        <f>(5.53739+5.55585+5.68751)/3</f>
-        <v>5.593583333333334</v>
+        <f>(6.06465+5.94132+6.02719)/3</f>
+        <v>6.0110533333333338</v>
       </c>
       <c r="C4" s="2">
         <f>(2.27114+2.26733+2.32981)/3</f>
@@ -18664,8 +18658,8 @@
         <v>80000</v>
       </c>
       <c r="B5" s="3">
-        <f>(22.768+22.2722+22.102)/3</f>
-        <v>22.380733333333335</v>
+        <f>(24.9336+25.1887+24.7084)/3</f>
+        <v>24.943566666666666</v>
       </c>
       <c r="C5">
         <f>(9.1501+9.11789+9.45372)/3</f>
@@ -18693,8 +18687,8 @@
         <v>100000</v>
       </c>
       <c r="B6" s="3">
-        <f>(34.6919+35.3491+37.6816)/3</f>
-        <v>35.907533333333333</v>
+        <f>(38.494+38.1501+38.7553)/3</f>
+        <v>38.466466666666669</v>
       </c>
       <c r="C6">
         <f>(14.2188+14.4099+14.4099)/3</f>

--- a/files/Rev00_DataGraphics_PTBR.xlsx
+++ b/files/Rev00_DataGraphics_PTBR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e359efc7a6f442/Desktop/Enari/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="498" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71922F59-0D6A-462E-8AB5-353DA40965E3}"/>
+  <xr:revisionPtr revIDLastSave="618" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD1C4726-0986-4DEC-8C10-5F74983E3A19}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
   </bookViews>
@@ -79,40 +79,6 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Mateus Gabriel de Paula</author>
-  </authors>
-  <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{70D99DE6-2304-4C21-A31E-9C4437B581A3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mateus Gabriel de Paula:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Esse bagulho é tão pequeno, que dentro da verificação de código ele acaba aparecendo como 0 para quando está ordenado.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="16">
   <si>
@@ -168,10 +134,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -204,7 +171,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,25 +188,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="19">
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -248,31 +242,100 @@
       <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3072,8 +3135,23 @@
             <c:numRef>
               <c:f>Ordenados!$D$2:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.143622</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67631500000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5638566666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.004483333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.401333333333334</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3384,10 +3462,25 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ordenados!$H$2:$H$6</c:f>
+              <c:f>'!Ordenados'!$H$2:$H$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.7499999999999993E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5386666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4466666666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1914333333333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0341333333333331E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3947,19 +4040,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.28608600000000001</c:v>
+                  <c:v>0.29687733333333327</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1996799999999999</c:v>
+                  <c:v>1.3655933333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6637266666666664</c:v>
+                  <c:v>5.0517433333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.733766666666664</c:v>
+                  <c:v>19.964033333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.435566666666663</c:v>
+                  <c:v>32.850699999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4041,19 +4134,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.13923633333333332</c:v>
+                  <c:v>0.15196233333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56267333333333325</c:v>
+                  <c:v>0.8434586666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3449766666666663</c:v>
+                  <c:v>2.7565766666666662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2576999999999998</c:v>
+                  <c:v>10.373133333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.655766666666667</c:v>
+                  <c:v>16.178599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4134,21 +4227,6 @@
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.8253333333333325E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3515666666666667E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4974E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.6310666666666669E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.5719666666666676E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4305,12 +4383,6 @@
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.4443333333333335E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5646666666666665E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4388,24 +4460,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'!Ordenados'!$H$2:$H$6</c:f>
+              <c:f>'!Ordenados'!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.2649999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.1253333333333333E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4749333333333335E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0516000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3499999999999997E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4488,18 +4548,6 @@
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.1869999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6253333333333333E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8609999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5896666666666664E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4986,19 +5034,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.13780733333333331</c:v>
+                  <c:v>0.15417033333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61377533333333334</c:v>
+                  <c:v>0.81966966666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2894266666666669</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>9.24057</c:v>
+                  <c:v>2.7840766666666661</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>10.392333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>14.346200000000001</c:v>
+                  <c:v>15.708999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5086,13 +5134,13 @@
                   <c:v>0.53424633333333338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2063666666666664</c:v>
+                  <c:v>2.69238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9095800000000001</c:v>
+                  <c:v>9.9679500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.731233333333334</c:v>
+                  <c:v>15.584833333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5171,21 +5219,6 @@
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>7.5006666666666668E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4546999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7223666666666663E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.533366666666667E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.2526999999999984E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5424,19 +5457,19 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.4703333333333333E-3</c:v>
+                  <c:v>4.2326666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8380000000000003E-3</c:v>
+                  <c:v>5.7343333333333335E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.456333333333333E-3</c:v>
+                  <c:v>9.1043333333333341E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7918666666666665E-2</c:v>
+                  <c:v>2.3833333333333335E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8515333333333334E-2</c:v>
+                  <c:v>3.209066666666667E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5523,21 +5556,6 @@
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.3483333333333333E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5823333333333336E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7309999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5363333333333332E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5510000000000004E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -17313,13 +17331,13 @@
   <autoFilter ref="A1:I6" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BB7217C-59F8-4792-9EA0-0720D6D8B12E}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{D3407327-A185-4351-A55C-14014B1B867D}" name="InsertionSort"/>
-    <tableColumn id="4" xr3:uid="{85C71698-96C8-48BF-9E4F-A31F4588E93A}" name="SelectionSort"/>
+    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{D3407327-A185-4351-A55C-14014B1B867D}" name="InsertionSort" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{85C71698-96C8-48BF-9E4F-A31F4588E93A}" name="SelectionSort" dataDxfId="16"/>
     <tableColumn id="5" xr3:uid="{D89F0557-14DD-46AD-9565-6B8B49785A1D}" name="MergeSort"/>
     <tableColumn id="6" xr3:uid="{342D5A51-5208-4EAA-A16A-1781198676FD}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{FBA48003-53BB-41A5-8ED7-223B444BF07D}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{AADA5A23-24DA-4A5E-9964-0C51CE8886B7}" name="RadixSort"/>
+    <tableColumn id="8" xr3:uid="{AADA5A23-24DA-4A5E-9964-0C51CE8886B7}" name="RadixSort" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{8A78FEEA-65F3-4865-8351-640E30D1210A}" name="CoutingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17330,14 +17348,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8E4EE357-D0C4-43BC-B881-53E1F8B229C0}" name="ValoresInversamenteOrdenados" displayName="ValoresInversamenteOrdenados" ref="A1:I6" totalsRowShown="0">
   <autoFilter ref="A1:I6" xr:uid="{8E4EE357-D0C4-43BC-B881-53E1F8B229C0}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C1F8DEBA-C1C8-4F0D-B5A8-25CE5185E617}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort"/>
-    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{C1F8DEBA-C1C8-4F0D-B5A8-25CE5185E617}" name="Tamanho" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="11"/>
     <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort"/>
-    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{1AF9EE2E-6E80-48E6-A0EA-B411C6533961}" name="CoutingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17348,14 +17366,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}" name="Aleatório1" displayName="Aleatório1" ref="A1:I6" totalsRowShown="0">
   <autoFilter ref="A1:I6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{88AB9604-3310-46A1-AD70-21C2608B01C8}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{277890D8-FE28-4EFB-A704-7CA343850008}" name="InsertionSort"/>
-    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{88AB9604-3310-46A1-AD70-21C2608B01C8}" name="Tamanho" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{277890D8-FE28-4EFB-A704-7CA343850008}" name="InsertionSort" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{8F5D90A6-8E0B-4E1B-8D02-4E5B09ACDCA0}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{59D8846C-91B6-4237-BE54-A17E0A509527}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17370,7 +17388,7 @@
     <tableColumn id="2" xr3:uid="{992F9C0B-6668-4206-8062-5710FE0429D1}" name="BubbleSort"/>
     <tableColumn id="3" xr3:uid="{EFA1803E-44E3-404F-87D9-65CCBEE1A3DE}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{A829DF70-6B9C-49B0-870B-D8A3FCDFF1FC}" name="SelectionSort"/>
-    <tableColumn id="5" xr3:uid="{EECD94D9-E658-432D-87FC-A98B3E2C2645}" name="MergeSort" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{EECD94D9-E658-432D-87FC-A98B3E2C2645}" name="MergeSort" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{ACF4646F-3D62-4D2C-AFE7-17C20339F4C3}" name="QuickSort"/>
     <tableColumn id="7" xr3:uid="{0B50FEDD-0752-47C3-ABE3-0D8374A536C0}" name="HeapSort"/>
     <tableColumn id="8" xr3:uid="{C8222E89-0ECB-433B-90A5-CBD88DB6FE41}" name="RadixSort"/>
@@ -18187,7 +18205,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18235,55 +18253,95 @@
       <c r="A2">
         <v>10000</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <f>(0.143508+0.153735+0.133623)/3</f>
+        <v>0.143622</v>
+      </c>
+      <c r="H2" s="7">
+        <f>(0.0020229+0.002017+0.002437)/3</f>
+        <v>2.1589666666666668E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <f>(0.693299+0.734118+0.601528)/3</f>
+        <v>0.67631500000000011</v>
+      </c>
+      <c r="H3" s="7">
+        <f>(0.004247+0.006066+0.00785)/3</f>
+        <v>6.0543333333333326E-3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <f>(2.57674+2.52472+2.59011)/3</f>
+        <v>2.5638566666666667</v>
+      </c>
+      <c r="H4" s="7">
+        <f>(0.010026+0.012086+0.006651)/3</f>
+        <v>9.5876666666666662E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <f>(9.90355+10.1659+9.944)/3</f>
+        <v>10.004483333333333</v>
+      </c>
+      <c r="H5" s="7">
+        <f>(0.016509+0.019933+0.015856)/3</f>
+        <v>1.7432666666666666E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <f>(15.3161+15.5573+15.3306)/3</f>
+        <v>15.401333333333334</v>
+      </c>
+      <c r="H6" s="7">
+        <f>(0.028122+0.031568+0.026013)/3</f>
+        <v>2.8567666666666668E-2</v>
       </c>
     </row>
   </sheetData>
@@ -18297,14 +18355,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2EE735-79F3-4DD9-AADC-FE4AC437BF10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2EE735-79F3-4DD9-AADC-FE4AC437BF10}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18350,166 +18408,130 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>10000</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <f>(0.373068+0.367002+0.410749)/3</f>
         <v>0.38360633333333333</v>
       </c>
-      <c r="C2" s="3">
-        <f>(0.28909+0.278629+0.290539)/3</f>
-        <v>0.28608600000000001</v>
-      </c>
-      <c r="D2" s="3">
-        <f>(0.151862+0.138773+0.127074)/3</f>
-        <v>0.13923633333333332</v>
-      </c>
-      <c r="E2" s="4">
-        <f>(0.005387+0.006061+0.006028)/3</f>
-        <v>5.8253333333333325E-3</v>
-      </c>
-      <c r="G2" s="5">
-        <f>(0.002001+0.003001+0.002331)/3</f>
-        <v>2.4443333333333335E-3</v>
-      </c>
-      <c r="H2" s="2">
-        <f>(0.004854+0.005872+0.005069)/3</f>
-        <v>5.2649999999999997E-3</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
+      <c r="C2" s="4">
+        <f>(0.283086+0.299998+0.307548)/3</f>
+        <v>0.29687733333333327</v>
+      </c>
+      <c r="D2" s="4">
+        <f>(0.147535+0.151521+0.156831)/3</f>
+        <v>0.15196233333333334</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="6">
+        <f>(0.002025+0+0)/3</f>
+        <v>6.7499999999999993E-4</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>20000</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <f>(1.4979+1.77204+1.77286)/3</f>
         <v>1.6809333333333332</v>
       </c>
-      <c r="C3" s="3">
-        <f>(1.2161+1.14851+1.23443)/3</f>
-        <v>1.1996799999999999</v>
-      </c>
-      <c r="D3" s="3">
-        <f>(0.56296+0.569012+0.556048)/3</f>
-        <v>0.56267333333333325</v>
-      </c>
-      <c r="E3" s="4">
-        <f>(0.011615+0.01313+0.015802)/3</f>
-        <v>1.3515666666666667E-2</v>
-      </c>
-      <c r="G3" s="5">
-        <f>(0.005371+0.002516+0.005807)/3</f>
-        <v>4.5646666666666665E-3</v>
-      </c>
-      <c r="H3" s="2">
-        <f>(0.005196+0.005353+0.007827)/3</f>
-        <v>6.1253333333333333E-3</v>
-      </c>
-      <c r="I3" s="4">
-        <f>(0.000514+0.001021+0.002026)/3</f>
-        <v>1.1869999999999999E-3</v>
-      </c>
+      <c r="C3" s="4">
+        <f>(1.39945+1.50779+1.18954)/3</f>
+        <v>1.3655933333333332</v>
+      </c>
+      <c r="D3" s="4">
+        <f>(0.641503+0.641503+1.24737)/3</f>
+        <v>0.8434586666666668</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="6">
+        <f>(0.006508+0.006072+0.004036)/3</f>
+        <v>5.5386666666666666E-3</v>
+      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>40000</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <f>(6.37258+6.40264+6.14401)/3</f>
         <v>6.3064099999999996</v>
       </c>
-      <c r="C4" s="3">
-        <f>(4.75831+4.64676+4.58611)/3</f>
-        <v>4.6637266666666664</v>
-      </c>
-      <c r="D4" s="3">
-        <f>(2.38666+2.29391+2.35436)/3</f>
-        <v>2.3449766666666663</v>
-      </c>
-      <c r="E4" s="4">
-        <f>(0.022722+0.023961+0.028239)/3</f>
-        <v>2.4974E-2</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="2">
-        <f>(0.015147+0.012408+0.016693)/3</f>
-        <v>1.4749333333333335E-2</v>
-      </c>
-      <c r="I4" s="4">
-        <f>(0.002008+0.003846+0.002022)/3</f>
-        <v>2.6253333333333333E-3</v>
-      </c>
+      <c r="C4" s="4">
+        <f>(5.00248+5.16485+4.9879)/3</f>
+        <v>5.0517433333333335</v>
+      </c>
+      <c r="D4" s="4">
+        <f>(2.74294+2.68053+2.84626)/3</f>
+        <v>2.7565766666666662</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="6">
+        <f>(0.012051+0.016326+0.015023)/3</f>
+        <v>1.4466666666666668E-2</v>
+      </c>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>80000</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <f>(25.4475+26.1256+24.5724)/3</f>
         <v>25.381833333333333</v>
       </c>
-      <c r="C5" s="3">
-        <f>(19.0952+18.4903+18.6158)/3</f>
-        <v>18.733766666666664</v>
-      </c>
-      <c r="D5" s="3">
-        <f>(9.47137+9.1157+9.18603)/3</f>
-        <v>9.2576999999999998</v>
-      </c>
-      <c r="E5" s="4">
-        <f>(0.061942+0.053101+0.053889)/3</f>
-        <v>5.6310666666666669E-2</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="2">
-        <f>(0.020408+0.022819+0.018321)/3</f>
-        <v>2.0516000000000003E-2</v>
-      </c>
-      <c r="I5" s="4">
-        <f>(0.003507+0.004038+0.004038)/3</f>
-        <v>3.8609999999999998E-3</v>
-      </c>
+      <c r="C5" s="4">
+        <f>(20.3619+19.9446+19.5856)/3</f>
+        <v>19.964033333333333</v>
+      </c>
+      <c r="D5" s="4">
+        <f>(10.4724+10.6529+9.9941)/3</f>
+        <v>10.373133333333334</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="6">
+        <f>(0.019913+0.018133+0.027697)/3</f>
+        <v>2.1914333333333331E-2</v>
+      </c>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>100000</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <f>(38.7489+38.0342+38.1355)/3</f>
         <v>38.306199999999997</v>
       </c>
-      <c r="C6" s="3">
-        <f>(29.7728+28.9981+29.5358)/3</f>
-        <v>29.435566666666663</v>
-      </c>
-      <c r="D6" s="3">
-        <f>(14.4914+15.2387+14.2372)/3</f>
-        <v>14.655766666666667</v>
-      </c>
-      <c r="E6" s="4">
-        <f>(0.059484+0.070161+0.067514)/3</f>
-        <v>6.5719666666666676E-2</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2">
-        <f>(0.022816 + 0.024383 + 0.023301)/3</f>
-        <v>2.3499999999999997E-2</v>
-      </c>
-      <c r="I6" s="4">
-        <f>(0.003706+0.006325+0.003738)/3</f>
-        <v>4.5896666666666664E-3</v>
-      </c>
+      <c r="C6" s="4">
+        <f>(32.5796+33.864+32.1085)/3</f>
+        <v>32.850699999999996</v>
+      </c>
+      <c r="D6" s="4">
+        <f>(16.074+15.9184+16.5434)/3</f>
+        <v>16.178599999999999</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="6">
+        <f>(0.028156+0.030035+0.032833)/3</f>
+        <v>3.0341333333333331E-2</v>
+      </c>
+      <c r="I6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -18522,7 +18544,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18567,149 +18589,119 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>10000</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <f>(0.367784+0.317723+0.331052)/3</f>
         <v>0.33885300000000002</v>
       </c>
-      <c r="C2" s="2">
-        <f>(0.133132+0.138554+0.141736)/3</f>
-        <v>0.13780733333333331</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="6">
+        <f>(0.146315+0.165353+0.150843)/3</f>
+        <v>0.15417033333333333</v>
+      </c>
+      <c r="D2" s="6">
         <f>(0.136645+0.141604+0.120234)/3</f>
         <v>0.13282766666666665</v>
       </c>
-      <c r="E2" s="4">
-        <f>(0.009084+0.010396+0.003022)/3</f>
-        <v>7.5006666666666668E-3</v>
-      </c>
-      <c r="H2" s="4">
-        <f>(0.001023+0.001021+0.002367)/3</f>
-        <v>1.4703333333333333E-3</v>
-      </c>
-      <c r="I2" s="4">
-        <f>(0.002024+0.002021+0)/3</f>
-        <v>1.3483333333333333E-3</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="H2" s="7">
+        <f>(0.005187+0.00495+0.002561)/3</f>
+        <v>4.2326666666666667E-3</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>20000</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <f>(1.3813+1.71049+1.65301)/3</f>
         <v>1.5815999999999999</v>
       </c>
-      <c r="C3" s="2">
-        <f>(0.547077+0.553206+0.741043)/3</f>
-        <v>0.61377533333333334</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="6">
+        <f>(0.751013+0.718205+0.989791)/3</f>
+        <v>0.81966966666666663</v>
+      </c>
+      <c r="D3" s="6">
         <f>(0.523142+0.539128+0.540469)/3</f>
         <v>0.53424633333333338</v>
       </c>
-      <c r="E3" s="4">
-        <f>(0.015726+0.01345+0.014465)/3</f>
-        <v>1.4546999999999999E-2</v>
-      </c>
-      <c r="H3" s="4">
-        <f>(0.004381+0.007068+0.006065)/3</f>
-        <v>5.8380000000000003E-3</v>
-      </c>
-      <c r="I3" s="4">
-        <f>(0.005734+0+0.002013)/3</f>
-        <v>2.5823333333333336E-3</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="H3" s="7">
+        <f>(0.005457+0.00773+0.004016)/3</f>
+        <v>5.7343333333333335E-3</v>
+      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>40000</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <f>(6.06465+5.94132+6.02719)/3</f>
         <v>6.0110533333333338</v>
       </c>
-      <c r="C4" s="2">
-        <f>(2.27114+2.26733+2.32981)/3</f>
-        <v>2.2894266666666669</v>
-      </c>
-      <c r="D4" s="2">
-        <f>(2.25229+2.18136+2.18545)/3</f>
-        <v>2.2063666666666664</v>
-      </c>
-      <c r="E4" s="4">
-        <f>(0.026633+0.031328+0.02371)/3</f>
-        <v>2.7223666666666663E-2</v>
-      </c>
-      <c r="H4" s="4">
-        <f>(0.0084+0.00791+0.006059)/3</f>
-        <v>7.456333333333333E-3</v>
-      </c>
-      <c r="I4" s="4">
-        <f>(0.002017+0.002021+0.007155)/3</f>
-        <v>3.7309999999999999E-3</v>
-      </c>
+      <c r="C4" s="6">
+        <f>(3.0155+2.64147+2.69526)/3</f>
+        <v>2.7840766666666661</v>
+      </c>
+      <c r="D4" s="6">
+        <f>(2.97004+2.56919+2.53791)/3</f>
+        <v>2.69238</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="H4" s="7">
+        <f>(0.008815+0.009832+0.008666)/3</f>
+        <v>9.1043333333333341E-3</v>
+      </c>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>80000</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <f>(24.9336+25.1887+24.7084)/3</f>
         <v>24.943566666666666</v>
       </c>
-      <c r="C5">
-        <f>(9.1501+9.11789+9.45372)/3</f>
-        <v>9.24057</v>
-      </c>
-      <c r="D5" s="2">
-        <f>(8.6315+9.39593+8.70131)/3</f>
-        <v>8.9095800000000001</v>
-      </c>
-      <c r="E5" s="4">
-        <f>(0.052174+0.048516+0.065311)/3</f>
-        <v>5.533366666666667E-2</v>
-      </c>
-      <c r="H5" s="4">
-        <f>(0.045114+0.020927+0.017715)/3</f>
-        <v>2.7918666666666665E-2</v>
-      </c>
-      <c r="I5" s="4">
-        <f>(0.004038+0.005162+0.004409)/3</f>
-        <v>4.5363333333333332E-3</v>
-      </c>
+      <c r="C5" s="5">
+        <f>(10.2434+10.8781+10.0555)/3</f>
+        <v>10.392333333333333</v>
+      </c>
+      <c r="D5" s="6">
+        <f>(10.0047+9.63215+10.267)/3</f>
+        <v>9.9679500000000001</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="H5" s="7">
+        <f>(0.017695+0.02431+0.029495)/3</f>
+        <v>2.3833333333333335E-2</v>
+      </c>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>100000</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <f>(38.494+38.1501+38.7553)/3</f>
         <v>38.466466666666669</v>
       </c>
-      <c r="C6">
-        <f>(14.2188+14.4099+14.4099)/3</f>
-        <v>14.346200000000001</v>
-      </c>
-      <c r="D6" s="2">
-        <f>(14.0817+13.5768+13.5352)/3</f>
-        <v>13.731233333333334</v>
-      </c>
-      <c r="E6" s="4">
-        <f>(0.079119+0.07005+0.128412)/3</f>
-        <v>9.2526999999999984E-2</v>
-      </c>
-      <c r="H6" s="4">
-        <f>(0.032864+0.02454+0.028142)/3</f>
-        <v>2.8515333333333334E-2</v>
-      </c>
-      <c r="I6" s="4">
-        <f>(0.0054+0.005276+0.005977)/3</f>
-        <v>5.5510000000000004E-3</v>
-      </c>
+      <c r="C6" s="3">
+        <f>(15.4495+15.9104+15.7671)/3</f>
+        <v>15.708999999999998</v>
+      </c>
+      <c r="D6" s="6">
+        <f>(15.2221+15.8064+15.726)/3</f>
+        <v>15.584833333333334</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="H6" s="7">
+        <f>(0.027616+0.038747+0.029909)/3</f>
+        <v>3.209066666666667E-2</v>
+      </c>
+      <c r="I6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/files/Rev00_DataGraphics_PTBR.xlsx
+++ b/files/Rev00_DataGraphics_PTBR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e359efc7a6f442/Desktop/Enari/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="618" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD1C4726-0986-4DEC-8C10-5F74983E3A19}"/>
+  <xr:revisionPtr revIDLastSave="707" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9242A62-7C4B-45E6-A88B-A8544840DC14}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste" sheetId="1" state="hidden" r:id="rId1"/>
@@ -188,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -197,19 +197,32 @@
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="27">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -221,10 +234,25 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -234,9 +262,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -268,6 +299,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2950,19 +3002,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3044,19 +3096,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3229,6 +3281,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2321333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3608666666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2100666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2758666666666671E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1901666666666655E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3302,10 +3369,22 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ordenados!$F$2:$F$6</c:f>
+              <c:f>Ordenados!$F$3:$F$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3976733333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6177900000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.60263333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.24666666666667</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3652,6 +3731,7 @@
       <c:valAx>
         <c:axId val="1792194559"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4302,8 +4382,23 @@
             <c:numRef>
               <c:f>'!Ordenados'!$F$2:$F$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.22045700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1875799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1071600000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.362499999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.164266666666666</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5294,8 +5389,23 @@
             <c:numRef>
               <c:f>Aleatório!$F$2:$F$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4126666666666669E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2750000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9903333333333336E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3340333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6921666666666665E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6124,6 +6234,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6201,6 +6326,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>132947.56235739225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>285829.68615288672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>611588.93374387571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1303102.4289258537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1661051.0956460533</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6278,6 +6418,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>57.150849518197802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.150849518197795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.150849518197788</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.150849518197802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.438561897747249</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6357,6 +6512,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>60002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6438,6 +6608,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6523,6 +6708,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100059</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200059</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400059</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500059</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -17331,13 +17531,13 @@
   <autoFilter ref="A1:I6" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BB7217C-59F8-4792-9EA0-0720D6D8B12E}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{D3407327-A185-4351-A55C-14014B1B867D}" name="InsertionSort" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{85C71698-96C8-48BF-9E4F-A31F4588E93A}" name="SelectionSort" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{D89F0557-14DD-46AD-9565-6B8B49785A1D}" name="MergeSort"/>
-    <tableColumn id="6" xr3:uid="{342D5A51-5208-4EAA-A16A-1781198676FD}" name="QuickSort"/>
+    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{D3407327-A185-4351-A55C-14014B1B867D}" name="InsertionSort" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{85C71698-96C8-48BF-9E4F-A31F4588E93A}" name="SelectionSort" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{D89F0557-14DD-46AD-9565-6B8B49785A1D}" name="MergeSort" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{342D5A51-5208-4EAA-A16A-1781198676FD}" name="QuickSort" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{FBA48003-53BB-41A5-8ED7-223B444BF07D}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{AADA5A23-24DA-4A5E-9964-0C51CE8886B7}" name="RadixSort" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{AADA5A23-24DA-4A5E-9964-0C51CE8886B7}" name="RadixSort" dataDxfId="24"/>
     <tableColumn id="9" xr3:uid="{8A78FEEA-65F3-4865-8351-640E30D1210A}" name="CoutingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17348,14 +17548,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8E4EE357-D0C4-43BC-B881-53E1F8B229C0}" name="ValoresInversamenteOrdenados" displayName="ValoresInversamenteOrdenados" ref="A1:I6" totalsRowShown="0">
   <autoFilter ref="A1:I6" xr:uid="{8E4EE357-D0C4-43BC-B881-53E1F8B229C0}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C1F8DEBA-C1C8-4F0D-B5A8-25CE5185E617}" name="Tamanho" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort"/>
-    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{C1F8DEBA-C1C8-4F0D-B5A8-25CE5185E617}" name="Tamanho" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="16"/>
     <tableColumn id="8" xr3:uid="{1AF9EE2E-6E80-48E6-A0EA-B411C6533961}" name="CoutingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17366,15 +17566,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}" name="Aleatório1" displayName="Aleatório1" ref="A1:I6" totalsRowShown="0">
   <autoFilter ref="A1:I6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{88AB9604-3310-46A1-AD70-21C2608B01C8}" name="Tamanho" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{277890D8-FE28-4EFB-A704-7CA343850008}" name="InsertionSort" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{8F5D90A6-8E0B-4E1B-8D02-4E5B09ACDCA0}" name="QuickSort"/>
+    <tableColumn id="1" xr3:uid="{88AB9604-3310-46A1-AD70-21C2608B01C8}" name="Tamanho" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{277890D8-FE28-4EFB-A704-7CA343850008}" name="InsertionSort" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{8F5D90A6-8E0B-4E1B-8D02-4E5B09ACDCA0}" name="QuickSort" dataDxfId="10"/>
     <tableColumn id="7" xr3:uid="{59D8846C-91B6-4237-BE54-A17E0A509527}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17388,11 +17588,21 @@
     <tableColumn id="2" xr3:uid="{992F9C0B-6668-4206-8062-5710FE0429D1}" name="BubbleSort"/>
     <tableColumn id="3" xr3:uid="{EFA1803E-44E3-404F-87D9-65CCBEE1A3DE}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{A829DF70-6B9C-49B0-870B-D8A3FCDFF1FC}" name="SelectionSort"/>
-    <tableColumn id="5" xr3:uid="{EECD94D9-E658-432D-87FC-A98B3E2C2645}" name="MergeSort" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{ACF4646F-3D62-4D2C-AFE7-17C20339F4C3}" name="QuickSort"/>
-    <tableColumn id="7" xr3:uid="{0B50FEDD-0752-47C3-ABE3-0D8374A536C0}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{C8222E89-0ECB-433B-90A5-CBD88DB6FE41}" name="RadixSort"/>
-    <tableColumn id="9" xr3:uid="{64003905-FAB0-4E61-96E1-4F3B35279A72}" name="CoutingSort"/>
+    <tableColumn id="5" xr3:uid="{EECD94D9-E658-432D-87FC-A98B3E2C2645}" name="MergeSort" dataDxfId="7">
+      <calculatedColumnFormula>(ComparaçãoEspacial[[#This Row],[Tamanho]]*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+(5*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{ACF4646F-3D62-4D2C-AFE7-17C20339F4C3}" name="QuickSort" dataDxfId="6">
+      <calculatedColumnFormula>(4*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{0B50FEDD-0752-47C3-ABE3-0D8374A536C0}" name="HeapSort" dataDxfId="5">
+      <calculatedColumnFormula>2+(6*ComparaçãoEspacial[[#This Row],[Tamanho]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{C8222E89-0ECB-433B-90A5-CBD88DB6FE41}" name="RadixSort" dataDxfId="4">
+      <calculatedColumnFormula>(2*ComparaçãoEspacial[[#This Row],[Tamanho]])+2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{64003905-FAB0-4E61-96E1-4F3B35279A72}" name="CoutingSort" dataDxfId="3">
+      <calculatedColumnFormula>(5*(ComparaçãoEspacial[[#This Row],[Tamanho]]+11))+4</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -18204,7 +18414,7 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -18215,7 +18425,7 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -18254,14 +18464,22 @@
         <v>10000</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D2" s="7">
         <f>(0.143508+0.153735+0.133623)/3</f>
         <v>0.143622</v>
+      </c>
+      <c r="E2" s="3">
+        <f>(0.010572+0.01206+0.014332)/3</f>
+        <v>1.2321333333333332E-2</v>
+      </c>
+      <c r="F2" s="8">
+        <f>(0.356971+0.339464+0.449254)/3</f>
+        <v>0.38189633333333334</v>
       </c>
       <c r="H2" s="7">
         <f>(0.0020229+0.002017+0.002437)/3</f>
@@ -18273,14 +18491,22 @@
         <v>20000</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D3" s="7">
         <f>(0.693299+0.734118+0.601528)/3</f>
         <v>0.67631500000000011</v>
+      </c>
+      <c r="E3" s="3">
+        <f>(0.024509+0.020357+0.02596)/3</f>
+        <v>2.3608666666666667E-2</v>
+      </c>
+      <c r="F3" s="8">
+        <f>(1.28966+1.30651+1.59685)/3</f>
+        <v>1.3976733333333333</v>
       </c>
       <c r="H3" s="7">
         <f>(0.004247+0.006066+0.00785)/3</f>
@@ -18292,14 +18518,22 @@
         <v>40000</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D4" s="7">
         <f>(2.57674+2.52472+2.59011)/3</f>
         <v>2.5638566666666667</v>
+      </c>
+      <c r="E4" s="3">
+        <f>(0.030752+0.033029+0.032521)/3</f>
+        <v>3.2100666666666666E-2</v>
+      </c>
+      <c r="F4" s="8">
+        <f>(5.58256+5.45561+5.8152)/3</f>
+        <v>5.6177900000000003</v>
       </c>
       <c r="H4" s="7">
         <f>(0.010026+0.012086+0.006651)/3</f>
@@ -18311,14 +18545,22 @@
         <v>80000</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D5" s="7">
         <f>(9.90355+10.1659+9.944)/3</f>
         <v>10.004483333333333</v>
+      </c>
+      <c r="E5" s="3">
+        <f>(0.055975+0.053481+0.07882)/3</f>
+        <v>6.2758666666666671E-2</v>
+      </c>
+      <c r="F5" s="8">
+        <f>(23.2866+23.075+21.4463)/3</f>
+        <v>22.60263333333333</v>
       </c>
       <c r="H5" s="7">
         <f>(0.016509+0.019933+0.015856)/3</f>
@@ -18330,15 +18572,23 @@
         <v>100000</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D6" s="7">
         <f>(15.3161+15.5573+15.3306)/3</f>
         <v>15.401333333333334</v>
       </c>
+      <c r="E6" s="3">
+        <f>(0.071378+0.07094+0.073387)/3</f>
+        <v>7.1901666666666655E-2</v>
+      </c>
+      <c r="F6" s="8">
+        <f>(34.6416+35.688+35.4104)/3</f>
+        <v>35.24666666666667</v>
+      </c>
       <c r="H6" s="7">
         <f>(0.028122+0.031568+0.026013)/3</f>
         <v>2.8567666666666668E-2</v>
@@ -18346,10 +18596,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -18361,8 +18612,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18424,6 +18675,10 @@
         <v>0.15196233333333334</v>
       </c>
       <c r="E2" s="1"/>
+      <c r="F2" s="7">
+        <f>(0.224719+0.224412+0.21224)/3</f>
+        <v>0.22045700000000001</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="6">
         <f>(0.002025+0+0)/3</f>
@@ -18448,6 +18703,10 @@
         <v>0.8434586666666668</v>
       </c>
       <c r="E3" s="1"/>
+      <c r="F3" s="7">
+        <f>(1.18705+1.19774+1.17795)/3</f>
+        <v>1.1875799999999999</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="6">
         <f>(0.006508+0.006072+0.004036)/3</f>
@@ -18472,6 +18731,10 @@
         <v>2.7565766666666662</v>
       </c>
       <c r="E4" s="1"/>
+      <c r="F4" s="7">
+        <f>(3.86531+4.23218+4.22399)/3</f>
+        <v>4.1071600000000004</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="6">
         <f>(0.012051+0.016326+0.015023)/3</f>
@@ -18496,6 +18759,10 @@
         <v>10.373133333333334</v>
       </c>
       <c r="E5" s="1"/>
+      <c r="F5" s="7">
+        <f>(16.3649+16.4757+16.2469)/3</f>
+        <v>16.362499999999997</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="6">
         <f>(0.019913+0.018133+0.027697)/3</f>
@@ -18520,6 +18787,10 @@
         <v>16.178599999999999</v>
       </c>
       <c r="E6" s="1"/>
+      <c r="F6" s="7">
+        <f>(27.5794+26.4656+24.4478)/3</f>
+        <v>26.164266666666666</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="6">
         <f>(0.028156+0.030035+0.032833)/3</f>
@@ -18544,7 +18815,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18605,6 +18876,10 @@
         <v>0.13282766666666665</v>
       </c>
       <c r="E2" s="1"/>
+      <c r="F2" s="9">
+        <f>(0.002018+0.00104+0.00118)/3</f>
+        <v>1.4126666666666669E-3</v>
+      </c>
       <c r="H2" s="7">
         <f>(0.005187+0.00495+0.002561)/3</f>
         <v>4.2326666666666667E-3</v>
@@ -18628,6 +18903,10 @@
         <v>0.53424633333333338</v>
       </c>
       <c r="E3" s="1"/>
+      <c r="F3" s="9">
+        <f>(0.004039+0.004432+0.004354)/3</f>
+        <v>4.2750000000000002E-3</v>
+      </c>
       <c r="H3" s="7">
         <f>(0.005457+0.00773+0.004016)/3</f>
         <v>5.7343333333333335E-3</v>
@@ -18651,6 +18930,10 @@
         <v>2.69238</v>
       </c>
       <c r="E4" s="1"/>
+      <c r="F4" s="9">
+        <f>(0.008695+0.005554+0.006722)/3</f>
+        <v>6.9903333333333336E-3</v>
+      </c>
       <c r="H4" s="7">
         <f>(0.008815+0.009832+0.008666)/3</f>
         <v>9.1043333333333341E-3</v>
@@ -18674,6 +18957,10 @@
         <v>9.9679500000000001</v>
       </c>
       <c r="E5" s="1"/>
+      <c r="F5" s="9">
+        <f>(0.012992+0.013812+0.013217)/3</f>
+        <v>1.3340333333333334E-2</v>
+      </c>
       <c r="H5" s="7">
         <f>(0.017695+0.02431+0.029495)/3</f>
         <v>2.3833333333333335E-2</v>
@@ -18697,6 +18984,10 @@
         <v>15.584833333333334</v>
       </c>
       <c r="E6" s="1"/>
+      <c r="F6" s="9">
+        <f>(0.016786+0.016786+0.017193)/3</f>
+        <v>1.6921666666666665E-2</v>
+      </c>
       <c r="H6" s="7">
         <f>(0.027616+0.038747+0.029909)/3</f>
         <v>3.209066666666667E-2</v>
@@ -18720,7 +19011,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18775,6 +19066,29 @@
       <c r="C2">
         <v>3</v>
       </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <f>(ComparaçãoEspacial[[#This Row],[Tamanho]]*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+(5*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+4</f>
+        <v>132947.56235739225</v>
+      </c>
+      <c r="F2">
+        <f>(4*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+4</f>
+        <v>57.150849518197802</v>
+      </c>
+      <c r="G2">
+        <f>2+(6*ComparaçãoEspacial[[#This Row],[Tamanho]])</f>
+        <v>60002</v>
+      </c>
+      <c r="H2">
+        <f>(2*ComparaçãoEspacial[[#This Row],[Tamanho]])+2</f>
+        <v>20002</v>
+      </c>
+      <c r="I2">
+        <f>(5*(ComparaçãoEspacial[[#This Row],[Tamanho]]+11))+4</f>
+        <v>50059</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -18786,6 +19100,29 @@
       <c r="C3">
         <v>3</v>
       </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <f>(ComparaçãoEspacial[[#This Row],[Tamanho]]*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+(5*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+4</f>
+        <v>285829.68615288672</v>
+      </c>
+      <c r="F3">
+        <f>(4*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+4</f>
+        <v>61.150849518197795</v>
+      </c>
+      <c r="G3">
+        <f>2+(6*ComparaçãoEspacial[[#This Row],[Tamanho]])</f>
+        <v>120002</v>
+      </c>
+      <c r="H3">
+        <f>(2*ComparaçãoEspacial[[#This Row],[Tamanho]])+2</f>
+        <v>40002</v>
+      </c>
+      <c r="I3">
+        <f>(5*(ComparaçãoEspacial[[#This Row],[Tamanho]]+11))+4</f>
+        <v>100059</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -18797,6 +19134,29 @@
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f>(ComparaçãoEspacial[[#This Row],[Tamanho]]*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+(5*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+4</f>
+        <v>611588.93374387571</v>
+      </c>
+      <c r="F4">
+        <f>(4*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+4</f>
+        <v>65.150849518197788</v>
+      </c>
+      <c r="G4">
+        <f>2+(6*ComparaçãoEspacial[[#This Row],[Tamanho]])</f>
+        <v>240002</v>
+      </c>
+      <c r="H4">
+        <f>(2*ComparaçãoEspacial[[#This Row],[Tamanho]])+2</f>
+        <v>80002</v>
+      </c>
+      <c r="I4">
+        <f>(5*(ComparaçãoEspacial[[#This Row],[Tamanho]]+11))+4</f>
+        <v>200059</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -18808,6 +19168,29 @@
       <c r="C5">
         <v>3</v>
       </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>(ComparaçãoEspacial[[#This Row],[Tamanho]]*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+(5*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+4</f>
+        <v>1303102.4289258537</v>
+      </c>
+      <c r="F5">
+        <f>(4*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+4</f>
+        <v>69.150849518197802</v>
+      </c>
+      <c r="G5">
+        <f>2+(6*ComparaçãoEspacial[[#This Row],[Tamanho]])</f>
+        <v>480002</v>
+      </c>
+      <c r="H5">
+        <f>(2*ComparaçãoEspacial[[#This Row],[Tamanho]])+2</f>
+        <v>160002</v>
+      </c>
+      <c r="I5">
+        <f>(5*(ComparaçãoEspacial[[#This Row],[Tamanho]]+11))+4</f>
+        <v>400059</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -18818,6 +19201,29 @@
       </c>
       <c r="C6">
         <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f>(ComparaçãoEspacial[[#This Row],[Tamanho]]*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+(5*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+4</f>
+        <v>1661051.0956460533</v>
+      </c>
+      <c r="F6">
+        <f>(4*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+4</f>
+        <v>70.438561897747249</v>
+      </c>
+      <c r="G6">
+        <f>2+(6*ComparaçãoEspacial[[#This Row],[Tamanho]])</f>
+        <v>600002</v>
+      </c>
+      <c r="H6">
+        <f>(2*ComparaçãoEspacial[[#This Row],[Tamanho]])+2</f>
+        <v>200002</v>
+      </c>
+      <c r="I6">
+        <f>(5*(ComparaçãoEspacial[[#This Row],[Tamanho]]+11))+4</f>
+        <v>500059</v>
       </c>
     </row>
   </sheetData>
@@ -18837,7 +19243,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H6"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/files/Rev00_DataGraphics_PTBR.xlsx
+++ b/files/Rev00_DataGraphics_PTBR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e359efc7a6f442/Desktop/Enari/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="707" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9242A62-7C4B-45E6-A88B-A8544840DC14}"/>
+  <xr:revisionPtr revIDLastSave="769" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB8A7E42-ECF7-4022-ADEC-19CDC385ECB3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste" sheetId="1" state="hidden" r:id="rId1"/>
@@ -134,11 +134,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -191,7 +192,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -201,12 +201,23 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="30">
     <dxf>
+      <numFmt numFmtId="172" formatCode="0.0000000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -225,7 +236,67 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -259,18 +330,6 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -307,18 +366,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
       <fill>
         <patternFill patternType="solid">
@@ -326,9 +373,6 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -365,6 +409,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
       <fill>
         <patternFill patternType="solid">
@@ -376,14 +428,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
@@ -3369,20 +3413,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ordenados!$F$3:$F$6</c:f>
+              <c:f>Ordenados!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.38189633333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.3976733333333333</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5.6177900000000003</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>22.60263333333333</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>35.24666666666667</c:v>
                 </c:pt>
               </c:numCache>
@@ -3462,8 +3509,23 @@
             <c:numRef>
               <c:f>Ordenados!$G$2:$G$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.9353333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2239999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3669666666666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1619666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0770666666666668E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3541,24 +3603,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'!Ordenados'!$H$2:$H$6</c:f>
+              <c:f>Ordenados!$H$2:$H$6</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.7499999999999993E-4</c:v>
+                  <c:v>2.1589666666666668E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5386666666666666E-3</c:v>
+                  <c:v>6.0543333333333326E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4466666666666668E-2</c:v>
+                  <c:v>9.5876666666666662E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1914333333333331E-2</c:v>
+                  <c:v>1.7432666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0341333333333331E-2</c:v>
+                  <c:v>2.8567666666666668E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4307,6 +4369,21 @@
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.6703333333333337E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2949333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5732666666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1178666666666671E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7431999999999992E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4478,6 +4555,21 @@
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.3426666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.796333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3815666666666665E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1087666666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6658666666666667E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5314,6 +5406,21 @@
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.0743333333333353E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5140666666666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3347299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6766666666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1914666666666668E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5485,6 +5592,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.7116666666666665E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2393333333333337E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2436666666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2797666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4324333333333334E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -17530,14 +17652,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}" name="ValoresOrdenados" displayName="ValoresOrdenados" ref="A1:I6" totalsRowShown="0">
   <autoFilter ref="A1:I6" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7BB7217C-59F8-4792-9EA0-0720D6D8B12E}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{D3407327-A185-4351-A55C-14014B1B867D}" name="InsertionSort" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{85C71698-96C8-48BF-9E4F-A31F4588E93A}" name="SelectionSort" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{D89F0557-14DD-46AD-9565-6B8B49785A1D}" name="MergeSort" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{342D5A51-5208-4EAA-A16A-1781198676FD}" name="QuickSort" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{FBA48003-53BB-41A5-8ED7-223B444BF07D}" name="HeapSort"/>
-    <tableColumn id="8" xr3:uid="{AADA5A23-24DA-4A5E-9964-0C51CE8886B7}" name="RadixSort" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{7BB7217C-59F8-4792-9EA0-0720D6D8B12E}" name="Tamanho" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D3407327-A185-4351-A55C-14014B1B867D}" name="InsertionSort" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{85C71698-96C8-48BF-9E4F-A31F4588E93A}" name="SelectionSort" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{D89F0557-14DD-46AD-9565-6B8B49785A1D}" name="MergeSort" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{342D5A51-5208-4EAA-A16A-1781198676FD}" name="QuickSort" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{FBA48003-53BB-41A5-8ED7-223B444BF07D}" name="HeapSort" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{AADA5A23-24DA-4A5E-9964-0C51CE8886B7}" name="RadixSort" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{8A78FEEA-65F3-4865-8351-640E30D1210A}" name="CoutingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17548,14 +17670,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8E4EE357-D0C4-43BC-B881-53E1F8B229C0}" name="ValoresInversamenteOrdenados" displayName="ValoresInversamenteOrdenados" ref="A1:I6" totalsRowShown="0">
   <autoFilter ref="A1:I6" xr:uid="{8E4EE357-D0C4-43BC-B881-53E1F8B229C0}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C1F8DEBA-C1C8-4F0D-B5A8-25CE5185E617}" name="Tamanho" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{C1F8DEBA-C1C8-4F0D-B5A8-25CE5185E617}" name="Tamanho" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="6"/>
     <tableColumn id="8" xr3:uid="{1AF9EE2E-6E80-48E6-A0EA-B411C6533961}" name="CoutingSort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17566,15 +17688,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}" name="Aleatório1" displayName="Aleatório1" ref="A1:I6" totalsRowShown="0">
   <autoFilter ref="A1:I6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{88AB9604-3310-46A1-AD70-21C2608B01C8}" name="Tamanho" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{277890D8-FE28-4EFB-A704-7CA343850008}" name="InsertionSort" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{88AB9604-3310-46A1-AD70-21C2608B01C8}" name="Tamanho" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{277890D8-FE28-4EFB-A704-7CA343850008}" name="InsertionSort" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="17"/>
     <tableColumn id="6" xr3:uid="{8F5D90A6-8E0B-4E1B-8D02-4E5B09ACDCA0}" name="QuickSort" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{59D8846C-91B6-4237-BE54-A17E0A509527}" name="HeapSort"/>
+    <tableColumn id="7" xr3:uid="{59D8846C-91B6-4237-BE54-A17E0A509527}" name="HeapSort" dataDxfId="8"/>
     <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17588,19 +17710,19 @@
     <tableColumn id="2" xr3:uid="{992F9C0B-6668-4206-8062-5710FE0429D1}" name="BubbleSort"/>
     <tableColumn id="3" xr3:uid="{EFA1803E-44E3-404F-87D9-65CCBEE1A3DE}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{A829DF70-6B9C-49B0-870B-D8A3FCDFF1FC}" name="SelectionSort"/>
-    <tableColumn id="5" xr3:uid="{EECD94D9-E658-432D-87FC-A98B3E2C2645}" name="MergeSort" dataDxfId="7">
+    <tableColumn id="5" xr3:uid="{EECD94D9-E658-432D-87FC-A98B3E2C2645}" name="MergeSort" dataDxfId="15">
       <calculatedColumnFormula>(ComparaçãoEspacial[[#This Row],[Tamanho]]*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+(5*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{ACF4646F-3D62-4D2C-AFE7-17C20339F4C3}" name="QuickSort" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{ACF4646F-3D62-4D2C-AFE7-17C20339F4C3}" name="QuickSort" dataDxfId="14">
       <calculatedColumnFormula>(4*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0B50FEDD-0752-47C3-ABE3-0D8374A536C0}" name="HeapSort" dataDxfId="5">
+    <tableColumn id="7" xr3:uid="{0B50FEDD-0752-47C3-ABE3-0D8374A536C0}" name="HeapSort" dataDxfId="13">
       <calculatedColumnFormula>2+(6*ComparaçãoEspacial[[#This Row],[Tamanho]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C8222E89-0ECB-433B-90A5-CBD88DB6FE41}" name="RadixSort" dataDxfId="4">
+    <tableColumn id="8" xr3:uid="{C8222E89-0ECB-433B-90A5-CBD88DB6FE41}" name="RadixSort" dataDxfId="12">
       <calculatedColumnFormula>(2*ComparaçãoEspacial[[#This Row],[Tamanho]])+2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{64003905-FAB0-4E61-96E1-4F3B35279A72}" name="CoutingSort" dataDxfId="3">
+    <tableColumn id="9" xr3:uid="{64003905-FAB0-4E61-96E1-4F3B35279A72}" name="CoutingSort" dataDxfId="11">
       <calculatedColumnFormula>(5*(ComparaçãoEspacial[[#This Row],[Tamanho]]+11))+4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18414,8 +18536,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18460,136 +18582,156 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>10000</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>(0.143508+0.153735+0.133623)/3</f>
         <v>0.143622</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>(0.010572+0.01206+0.014332)/3</f>
         <v>1.2321333333333332E-2</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <f>(0.356971+0.339464+0.449254)/3</f>
         <v>0.38189633333333334</v>
       </c>
-      <c r="H2" s="7">
+      <c r="G2" s="9">
+        <f>(0.002024+0.003782+0)/3</f>
+        <v>1.9353333333333334E-3</v>
+      </c>
+      <c r="H2" s="6">
         <f>(0.0020229+0.002017+0.002437)/3</f>
         <v>2.1589666666666668E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>20000</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <f>(0.693299+0.734118+0.601528)/3</f>
         <v>0.67631500000000011</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f>(0.024509+0.020357+0.02596)/3</f>
         <v>2.3608666666666667E-2</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <f>(1.28966+1.30651+1.59685)/3</f>
         <v>1.3976733333333333</v>
       </c>
-      <c r="H3" s="7">
+      <c r="G3" s="9">
+        <f>(0.004158+0.0045+0.004014)/3</f>
+        <v>4.2239999999999995E-3</v>
+      </c>
+      <c r="H3" s="6">
         <f>(0.004247+0.006066+0.00785)/3</f>
         <v>6.0543333333333326E-3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>40000</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f>(2.57674+2.52472+2.59011)/3</f>
         <v>2.5638566666666667</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f>(0.030752+0.033029+0.032521)/3</f>
         <v>3.2100666666666666E-2</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f>(5.58256+5.45561+5.8152)/3</f>
         <v>5.6177900000000003</v>
       </c>
-      <c r="H4" s="7">
+      <c r="G4" s="9">
+        <f>(0.010928+0.017637+0.012444)/3</f>
+        <v>1.3669666666666669E-2</v>
+      </c>
+      <c r="H4" s="6">
         <f>(0.010026+0.012086+0.006651)/3</f>
         <v>9.5876666666666662E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>80000</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f>(9.90355+10.1659+9.944)/3</f>
         <v>10.004483333333333</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f>(0.055975+0.053481+0.07882)/3</f>
         <v>6.2758666666666671E-2</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f>(23.2866+23.075+21.4463)/3</f>
         <v>22.60263333333333</v>
       </c>
-      <c r="H5" s="7">
+      <c r="G5" s="9">
+        <f>(0.025006+0.017622+0.022231)/3</f>
+        <v>2.1619666666666666E-2</v>
+      </c>
+      <c r="H5" s="6">
         <f>(0.016509+0.019933+0.015856)/3</f>
         <v>1.7432666666666666E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>100000</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f>(15.3161+15.5573+15.3306)/3</f>
         <v>15.401333333333334</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f>(0.071378+0.07094+0.073387)/3</f>
         <v>7.1901666666666655E-2</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f>(34.6416+35.688+35.4104)/3</f>
         <v>35.24666666666667</v>
       </c>
-      <c r="H6" s="7">
+      <c r="G6" s="9">
+        <f>(0.032071+0.02981+0.030431)/3</f>
+        <v>3.0770666666666668E-2</v>
+      </c>
+      <c r="H6" s="6">
         <f>(0.028122+0.031568+0.026013)/3</f>
         <v>2.8567666666666668E-2</v>
       </c>
@@ -18613,7 +18755,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18659,140 +18801,170 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>10000</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <f>(0.373068+0.367002+0.410749)/3</f>
         <v>0.38360633333333333</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>(0.283086+0.299998+0.307548)/3</f>
         <v>0.29687733333333327</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <f>(0.147535+0.151521+0.156831)/3</f>
         <v>0.15196233333333334</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="7">
+      <c r="E2" s="6">
+        <f>(0.007602+0.005998+0.006411)/3</f>
+        <v>6.6703333333333337E-3</v>
+      </c>
+      <c r="F2" s="6">
         <f>(0.224719+0.224412+0.21224)/3</f>
         <v>0.22045700000000001</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="6">
+      <c r="G2" s="8">
+        <f>(0.002018+0.00201+0)/3</f>
+        <v>1.3426666666666667E-3</v>
+      </c>
+      <c r="H2" s="5">
         <f>(0.002025+0+0)/3</f>
         <v>6.7499999999999993E-4</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>20000</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <f>(1.4979+1.77204+1.77286)/3</f>
         <v>1.6809333333333332</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>(1.39945+1.50779+1.18954)/3</f>
         <v>1.3655933333333332</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f>(0.641503+0.641503+1.24737)/3</f>
         <v>0.8434586666666668</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="7">
+      <c r="E3" s="6">
+        <f>(0.013055+0.012397+0.013396)/3</f>
+        <v>1.2949333333333334E-2</v>
+      </c>
+      <c r="F3" s="6">
         <f>(1.18705+1.19774+1.17795)/3</f>
         <v>1.1875799999999999</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="6">
+      <c r="G3" s="8">
+        <f>(0.007584+0.005024+0.004781)/3</f>
+        <v>5.796333333333333E-3</v>
+      </c>
+      <c r="H3" s="5">
         <f>(0.006508+0.006072+0.004036)/3</f>
         <v>5.5386666666666666E-3</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>40000</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f>(6.37258+6.40264+6.14401)/3</f>
         <v>6.3064099999999996</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f>(5.00248+5.16485+4.9879)/3</f>
         <v>5.0517433333333335</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f>(2.74294+2.68053+2.84626)/3</f>
         <v>2.7565766666666662</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="7">
+      <c r="E4" s="6">
+        <f>(0.018662+0.032966+0.02557)/3</f>
+        <v>2.5732666666666668E-2</v>
+      </c>
+      <c r="F4" s="6">
         <f>(3.86531+4.23218+4.22399)/3</f>
         <v>4.1071600000000004</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="6">
+      <c r="G4" s="8">
+        <f>(0.012549+0.012174+0.016724)/3</f>
+        <v>1.3815666666666665E-2</v>
+      </c>
+      <c r="H4" s="5">
         <f>(0.012051+0.016326+0.015023)/3</f>
         <v>1.4466666666666668E-2</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>80000</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <f>(25.4475+26.1256+24.5724)/3</f>
         <v>25.381833333333333</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>(20.3619+19.9446+19.5856)/3</f>
         <v>19.964033333333333</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f>(10.4724+10.6529+9.9941)/3</f>
         <v>10.373133333333334</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="7">
+      <c r="E5" s="6">
+        <f>(0.053955+0.0497+0.049881)/3</f>
+        <v>5.1178666666666671E-2</v>
+      </c>
+      <c r="F5" s="6">
         <f>(16.3649+16.4757+16.2469)/3</f>
         <v>16.362499999999997</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="6">
+      <c r="G5" s="8">
+        <f>(0.02079+0.021552+0.020921)/3</f>
+        <v>2.1087666666666668E-2</v>
+      </c>
+      <c r="H5" s="5">
         <f>(0.019913+0.018133+0.027697)/3</f>
         <v>2.1914333333333331E-2</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>100000</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <f>(38.7489+38.0342+38.1355)/3</f>
         <v>38.306199999999997</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f>(32.5796+33.864+32.1085)/3</f>
         <v>32.850699999999996</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f>(16.074+15.9184+16.5434)/3</f>
         <v>16.178599999999999</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="7">
+      <c r="E6" s="6">
+        <f>(0.077619+0.063816+0.060861)/3</f>
+        <v>6.7431999999999992E-2</v>
+      </c>
+      <c r="F6" s="6">
         <f>(27.5794+26.4656+24.4478)/3</f>
         <v>26.164266666666666</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="6">
+      <c r="G6" s="8">
+        <f>(0.02447+0.028012+0.027494)/3</f>
+        <v>2.6658666666666667E-2</v>
+      </c>
+      <c r="H6" s="5">
         <f>(0.028156+0.030035+0.032833)/3</f>
         <v>3.0341333333333331E-2</v>
       </c>
@@ -18814,8 +18986,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18860,135 +19032,170 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>10000</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <f>(0.367784+0.317723+0.331052)/3</f>
         <v>0.33885300000000002</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <f>(0.146315+0.165353+0.150843)/3</f>
         <v>0.15417033333333333</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <f>(0.136645+0.141604+0.120234)/3</f>
         <v>0.13282766666666665</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="9">
+      <c r="E2" s="6">
+        <f>(0.013004+0.005218+0.009001)/3</f>
+        <v>9.0743333333333353E-3</v>
+      </c>
+      <c r="F2" s="8">
         <f>(0.002018+0.00104+0.00118)/3</f>
         <v>1.4126666666666669E-3</v>
       </c>
-      <c r="H2" s="7">
+      <c r="G2" s="2">
+        <f>(0.002021+0.004044+0.00207)/3</f>
+        <v>2.7116666666666665E-3</v>
+      </c>
+      <c r="H2" s="6">
         <f>(0.005187+0.00495+0.002561)/3</f>
         <v>4.2326666666666667E-3</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>20000</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <f>(1.3813+1.71049+1.65301)/3</f>
         <v>1.5815999999999999</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <f>(0.751013+0.718205+0.989791)/3</f>
         <v>0.81966966666666663</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>(0.523142+0.539128+0.540469)/3</f>
         <v>0.53424633333333338</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="9">
+      <c r="E3" s="6">
+        <f>(0.015845+0.015712+0.013865)/3</f>
+        <v>1.5140666666666669E-2</v>
+      </c>
+      <c r="F3" s="8">
         <f>(0.004039+0.004432+0.004354)/3</f>
         <v>4.2750000000000002E-3</v>
       </c>
-      <c r="H3" s="7">
+      <c r="G3" s="2">
+        <f>(0.006217+0.008083+0.007418)/3</f>
+        <v>7.2393333333333337E-3</v>
+      </c>
+      <c r="H3" s="6">
         <f>(0.005457+0.00773+0.004016)/3</f>
         <v>5.7343333333333335E-3</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>40000</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f>(6.06465+5.94132+6.02719)/3</f>
         <v>6.0110533333333338</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <f>(3.0155+2.64147+2.69526)/3</f>
         <v>2.7840766666666661</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>(2.97004+2.56919+2.53791)/3</f>
         <v>2.69238</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="9">
+      <c r="E4" s="6">
+        <f>(0.029469+0.020023+0.0205499)/3</f>
+        <v>2.3347299999999998E-2</v>
+      </c>
+      <c r="F4" s="8">
         <f>(0.008695+0.005554+0.006722)/3</f>
         <v>6.9903333333333336E-3</v>
       </c>
-      <c r="H4" s="7">
+      <c r="G4" s="2">
+        <f>(0.01583+0.013135+0.008345)/3</f>
+        <v>1.2436666666666667E-2</v>
+      </c>
+      <c r="H4" s="6">
         <f>(0.008815+0.009832+0.008666)/3</f>
         <v>9.1043333333333341E-3</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>80000</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <f>(24.9336+25.1887+24.7084)/3</f>
         <v>24.943566666666666</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f>(10.2434+10.8781+10.0555)/3</f>
         <v>10.392333333333333</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>(10.0047+9.63215+10.267)/3</f>
         <v>9.9679500000000001</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="9">
+      <c r="E5" s="6">
+        <f>(0.056134+0.056619+0.057547)/3</f>
+        <v>5.6766666666666667E-2</v>
+      </c>
+      <c r="F5" s="8">
         <f>(0.012992+0.013812+0.013217)/3</f>
         <v>1.3340333333333334E-2</v>
       </c>
-      <c r="H5" s="7">
+      <c r="G5" s="2">
+        <f>(0.025214+0.016041+0.027138)/3</f>
+        <v>2.2797666666666664E-2</v>
+      </c>
+      <c r="H5" s="6">
         <f>(0.017695+0.02431+0.029495)/3</f>
         <v>2.3833333333333335E-2</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>100000</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <f>(38.494+38.1501+38.7553)/3</f>
         <v>38.466466666666669</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f>(15.4495+15.9104+15.7671)/3</f>
         <v>15.708999999999998</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f>(15.2221+15.8064+15.726)/3</f>
         <v>15.584833333333334</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="9">
+      <c r="E6" s="6">
+        <f>(0.074127+0.068825+0.072792)/3</f>
+        <v>7.1914666666666668E-2</v>
+      </c>
+      <c r="F6" s="8">
         <f>(0.016786+0.016786+0.017193)/3</f>
         <v>1.6921666666666665E-2</v>
       </c>
-      <c r="H6" s="7">
+      <c r="G6" s="2">
+        <f>(0.055697+0.035763+0.041513)/3</f>
+        <v>4.4324333333333334E-2</v>
+      </c>
+      <c r="H6" s="6">
         <f>(0.027616+0.038747+0.029909)/3</f>
         <v>3.209066666666667E-2</v>
       </c>
@@ -19243,7 +19450,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/files/Rev00_DataGraphics_PTBR.xlsx
+++ b/files/Rev00_DataGraphics_PTBR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e359efc7a6f442/Desktop/Enari/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="769" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB8A7E42-ECF7-4022-ADEC-19CDC385ECB3}"/>
+  <xr:revisionPtr revIDLastSave="793" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08EE2B65-88D4-4225-9C20-2D6B501EE414}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste" sheetId="1" state="hidden" r:id="rId1"/>
@@ -134,12 +134,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -191,7 +192,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -201,67 +201,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.0000000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -287,7 +235,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -296,7 +244,16 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <numFmt numFmtId="169" formatCode="0.00000000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -320,7 +277,21 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -358,6 +329,24 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -409,6 +398,25 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="0.0000000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -428,6 +436,22 @@
     <dxf>
       <fill>
         <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
@@ -3705,8 +3729,23 @@
             <c:numRef>
               <c:f>Ordenados!$I$2:$I$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.736666666666666E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3486666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5363333333333336E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1466666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1450000000000003E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4735,6 +4774,18 @@
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.2190000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7593333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6686666666666665E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9036666666666665E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5788,6 +5839,21 @@
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0873333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2443333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.016E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1246666666666663E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5973333333333335E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -17652,15 +17718,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}" name="ValoresOrdenados" displayName="ValoresOrdenados" ref="A1:I6" totalsRowShown="0">
   <autoFilter ref="A1:I6" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7BB7217C-59F8-4792-9EA0-0720D6D8B12E}" name="Tamanho" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{7BB7217C-59F8-4792-9EA0-0720D6D8B12E}" name="Tamanho" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="30"/>
     <tableColumn id="3" xr3:uid="{D3407327-A185-4351-A55C-14014B1B867D}" name="InsertionSort" dataDxfId="29"/>
     <tableColumn id="4" xr3:uid="{85C71698-96C8-48BF-9E4F-A31F4588E93A}" name="SelectionSort" dataDxfId="28"/>
     <tableColumn id="5" xr3:uid="{D89F0557-14DD-46AD-9565-6B8B49785A1D}" name="MergeSort" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{342D5A51-5208-4EAA-A16A-1781198676FD}" name="QuickSort" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{FBA48003-53BB-41A5-8ED7-223B444BF07D}" name="HeapSort" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{AADA5A23-24DA-4A5E-9964-0C51CE8886B7}" name="RadixSort" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{8A78FEEA-65F3-4865-8351-640E30D1210A}" name="CoutingSort"/>
+    <tableColumn id="6" xr3:uid="{342D5A51-5208-4EAA-A16A-1781198676FD}" name="QuickSort" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{FBA48003-53BB-41A5-8ED7-223B444BF07D}" name="HeapSort" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{AADA5A23-24DA-4A5E-9964-0C51CE8886B7}" name="RadixSort" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{8A78FEEA-65F3-4865-8351-640E30D1210A}" name="CoutingSort" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17670,15 +17736,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8E4EE357-D0C4-43BC-B881-53E1F8B229C0}" name="ValoresInversamenteOrdenados" displayName="ValoresInversamenteOrdenados" ref="A1:I6" totalsRowShown="0">
   <autoFilter ref="A1:I6" xr:uid="{8E4EE357-D0C4-43BC-B881-53E1F8B229C0}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C1F8DEBA-C1C8-4F0D-B5A8-25CE5185E617}" name="Tamanho" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{1AF9EE2E-6E80-48E6-A0EA-B411C6533961}" name="CoutingSort"/>
+    <tableColumn id="1" xr3:uid="{C1F8DEBA-C1C8-4F0D-B5A8-25CE5185E617}" name="Tamanho" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{1AF9EE2E-6E80-48E6-A0EA-B411C6533961}" name="CoutingSort" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17688,15 +17754,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}" name="Aleatório1" displayName="Aleatório1" ref="A1:I6" totalsRowShown="0">
   <autoFilter ref="A1:I6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{88AB9604-3310-46A1-AD70-21C2608B01C8}" name="Tamanho" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{277890D8-FE28-4EFB-A704-7CA343850008}" name="InsertionSort" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{8F5D90A6-8E0B-4E1B-8D02-4E5B09ACDCA0}" name="QuickSort" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{59D8846C-91B6-4237-BE54-A17E0A509527}" name="HeapSort" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{88AB9604-3310-46A1-AD70-21C2608B01C8}" name="Tamanho" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{277890D8-FE28-4EFB-A704-7CA343850008}" name="InsertionSort" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{8F5D90A6-8E0B-4E1B-8D02-4E5B09ACDCA0}" name="QuickSort" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{59D8846C-91B6-4237-BE54-A17E0A509527}" name="HeapSort" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17710,19 +17776,19 @@
     <tableColumn id="2" xr3:uid="{992F9C0B-6668-4206-8062-5710FE0429D1}" name="BubbleSort"/>
     <tableColumn id="3" xr3:uid="{EFA1803E-44E3-404F-87D9-65CCBEE1A3DE}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{A829DF70-6B9C-49B0-870B-D8A3FCDFF1FC}" name="SelectionSort"/>
-    <tableColumn id="5" xr3:uid="{EECD94D9-E658-432D-87FC-A98B3E2C2645}" name="MergeSort" dataDxfId="15">
+    <tableColumn id="5" xr3:uid="{EECD94D9-E658-432D-87FC-A98B3E2C2645}" name="MergeSort" dataDxfId="10">
       <calculatedColumnFormula>(ComparaçãoEspacial[[#This Row],[Tamanho]]*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+(5*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{ACF4646F-3D62-4D2C-AFE7-17C20339F4C3}" name="QuickSort" dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{ACF4646F-3D62-4D2C-AFE7-17C20339F4C3}" name="QuickSort" dataDxfId="9">
       <calculatedColumnFormula>(4*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0B50FEDD-0752-47C3-ABE3-0D8374A536C0}" name="HeapSort" dataDxfId="13">
+    <tableColumn id="7" xr3:uid="{0B50FEDD-0752-47C3-ABE3-0D8374A536C0}" name="HeapSort" dataDxfId="8">
       <calculatedColumnFormula>2+(6*ComparaçãoEspacial[[#This Row],[Tamanho]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C8222E89-0ECB-433B-90A5-CBD88DB6FE41}" name="RadixSort" dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{C8222E89-0ECB-433B-90A5-CBD88DB6FE41}" name="RadixSort" dataDxfId="7">
       <calculatedColumnFormula>(2*ComparaçãoEspacial[[#This Row],[Tamanho]])+2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{64003905-FAB0-4E61-96E1-4F3B35279A72}" name="CoutingSort" dataDxfId="11">
+    <tableColumn id="9" xr3:uid="{64003905-FAB0-4E61-96E1-4F3B35279A72}" name="CoutingSort" dataDxfId="6">
       <calculatedColumnFormula>(5*(ComparaçãoEspacial[[#This Row],[Tamanho]]+11))+4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18536,8 +18602,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18582,158 +18648,178 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>10000</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <f>(0.143508+0.153735+0.133623)/3</f>
         <v>0.143622</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <f>(0.010572+0.01206+0.014332)/3</f>
         <v>1.2321333333333332E-2</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f>(0.356971+0.339464+0.449254)/3</f>
         <v>0.38189633333333334</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <f>(0.002024+0.003782+0)/3</f>
         <v>1.9353333333333334E-3</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <f>(0.0020229+0.002017+0.002437)/3</f>
         <v>2.1589666666666668E-3</v>
       </c>
+      <c r="I2" s="9">
+        <f>(0+0.002021+0)/3</f>
+        <v>6.736666666666666E-4</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>20000</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>(0.693299+0.734118+0.601528)/3</f>
         <v>0.67631500000000011</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <f>(0.024509+0.020357+0.02596)/3</f>
         <v>2.3608666666666667E-2</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f>(1.28966+1.30651+1.59685)/3</f>
         <v>1.3976733333333333</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <f>(0.004158+0.0045+0.004014)/3</f>
         <v>4.2239999999999995E-3</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f>(0.004247+0.006066+0.00785)/3</f>
         <v>6.0543333333333326E-3</v>
       </c>
+      <c r="I3" s="9">
+        <f>(0.002023+0.002023+0)/3</f>
+        <v>1.3486666666666666E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>40000</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>(2.57674+2.52472+2.59011)/3</f>
         <v>2.5638566666666667</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <f>(0.030752+0.033029+0.032521)/3</f>
         <v>3.2100666666666666E-2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>(5.58256+5.45561+5.8152)/3</f>
         <v>5.6177900000000003</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f>(0.010928+0.017637+0.012444)/3</f>
         <v>1.3669666666666669E-2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f>(0.010026+0.012086+0.006651)/3</f>
         <v>9.5876666666666662E-3</v>
       </c>
+      <c r="I4" s="9">
+        <f>(0.003405+0.0022+0.002004)/3</f>
+        <v>2.5363333333333336E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>80000</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>(9.90355+10.1659+9.944)/3</f>
         <v>10.004483333333333</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f>(0.055975+0.053481+0.07882)/3</f>
         <v>6.2758666666666671E-2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f>(23.2866+23.075+21.4463)/3</f>
         <v>22.60263333333333</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <f>(0.025006+0.017622+0.022231)/3</f>
         <v>2.1619666666666666E-2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f>(0.016509+0.019933+0.015856)/3</f>
         <v>1.7432666666666666E-2</v>
       </c>
+      <c r="I5" s="9">
+        <f>(0.004044+0.003421+0.007975)/3</f>
+        <v>5.1466666666666666E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>100000</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f>(15.3161+15.5573+15.3306)/3</f>
         <v>15.401333333333334</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f>(0.071378+0.07094+0.073387)/3</f>
         <v>7.1901666666666655E-2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f>(34.6416+35.688+35.4104)/3</f>
         <v>35.24666666666667</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f>(0.032071+0.02981+0.030431)/3</f>
         <v>3.0770666666666668E-2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f>(0.028122+0.031568+0.026013)/3</f>
         <v>2.8567666666666668E-2</v>
+      </c>
+      <c r="I6" s="9">
+        <f>(0.009264+0.005152+0.004019)/3</f>
+        <v>6.1450000000000003E-3</v>
       </c>
     </row>
   </sheetData>
@@ -18755,7 +18841,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="I2" sqref="I2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18801,174 +18887,189 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>10000</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <f>(0.373068+0.367002+0.410749)/3</f>
         <v>0.38360633333333333</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <f>(0.283086+0.299998+0.307548)/3</f>
         <v>0.29687733333333327</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <f>(0.147535+0.151521+0.156831)/3</f>
         <v>0.15196233333333334</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <f>(0.007602+0.005998+0.006411)/3</f>
         <v>6.6703333333333337E-3</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <f>(0.224719+0.224412+0.21224)/3</f>
         <v>0.22045700000000001</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <f>(0.002018+0.00201+0)/3</f>
         <v>1.3426666666666667E-3</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <f>(0.002025+0+0)/3</f>
         <v>6.7499999999999993E-4</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="5">
+        <f>(0.001015+0.002016+0.002021)/3</f>
+        <v>1.6839999999999997E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>20000</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <f>(1.4979+1.77204+1.77286)/3</f>
         <v>1.6809333333333332</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <f>(1.39945+1.50779+1.18954)/3</f>
         <v>1.3655933333333332</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f>(0.641503+0.641503+1.24737)/3</f>
         <v>0.8434586666666668</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f>(0.013055+0.012397+0.013396)/3</f>
         <v>1.2949333333333334E-2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>(1.18705+1.19774+1.17795)/3</f>
         <v>1.1875799999999999</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <f>(0.007584+0.005024+0.004781)/3</f>
         <v>5.796333333333333E-3</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f>(0.006508+0.006072+0.004036)/3</f>
         <v>5.5386666666666666E-3</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="5">
+        <f>(0.002016+0.002626+0.002015)/3</f>
+        <v>2.2190000000000001E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>40000</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>(6.37258+6.40264+6.14401)/3</f>
         <v>6.3064099999999996</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>(5.00248+5.16485+4.9879)/3</f>
         <v>5.0517433333333335</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>(2.74294+2.68053+2.84626)/3</f>
         <v>2.7565766666666662</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f>(0.018662+0.032966+0.02557)/3</f>
         <v>2.5732666666666668E-2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>(3.86531+4.23218+4.22399)/3</f>
         <v>4.1071600000000004</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <f>(0.012549+0.012174+0.016724)/3</f>
         <v>1.3815666666666665E-2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <f>(0.012051+0.016326+0.015023)/3</f>
         <v>1.4466666666666668E-2</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="5">
+        <f>(0.005505+0.006759+0.002014)/3</f>
+        <v>4.7593333333333333E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>80000</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f>(25.4475+26.1256+24.5724)/3</f>
         <v>25.381833333333333</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f>(20.3619+19.9446+19.5856)/3</f>
         <v>19.964033333333333</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f>(10.4724+10.6529+9.9941)/3</f>
         <v>10.373133333333334</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f>(0.053955+0.0497+0.049881)/3</f>
         <v>5.1178666666666671E-2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>(16.3649+16.4757+16.2469)/3</f>
         <v>16.362499999999997</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <f>(0.02079+0.021552+0.020921)/3</f>
         <v>2.1087666666666668E-2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f>(0.019913+0.018133+0.027697)/3</f>
         <v>2.1914333333333331E-2</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="5">
+        <f>(0.004018+0.004034+0.008954)/3</f>
+        <v>5.6686666666666665E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>100000</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f>(38.7489+38.0342+38.1355)/3</f>
         <v>38.306199999999997</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f>(32.5796+33.864+32.1085)/3</f>
         <v>32.850699999999996</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f>(16.074+15.9184+16.5434)/3</f>
         <v>16.178599999999999</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f>(0.077619+0.063816+0.060861)/3</f>
         <v>6.7431999999999992E-2</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f>(27.5794+26.4656+24.4478)/3</f>
         <v>26.164266666666666</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <f>(0.02447+0.028012+0.027494)/3</f>
         <v>2.6658666666666667E-2</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f>(0.028156+0.030035+0.032833)/3</f>
         <v>3.0341333333333331E-2</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="5">
+        <f>(0.006022+0.004038+0.013651)/3</f>
+        <v>7.9036666666666665E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -18986,8 +19087,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19032,174 +19133,189 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>10000</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <f>(0.367784+0.317723+0.331052)/3</f>
         <v>0.33885300000000002</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <f>(0.146315+0.165353+0.150843)/3</f>
         <v>0.15417033333333333</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f>(0.136645+0.141604+0.120234)/3</f>
         <v>0.13282766666666665</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <f>(0.013004+0.005218+0.009001)/3</f>
         <v>9.0743333333333353E-3</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <f>(0.002018+0.00104+0.00118)/3</f>
         <v>1.4126666666666669E-3</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <f>(0.002021+0.004044+0.00207)/3</f>
         <v>2.7116666666666665E-3</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <f>(0.005187+0.00495+0.002561)/3</f>
         <v>4.2326666666666667E-3</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="5">
+        <f>(0.002435+0.002011+0.001816)/3</f>
+        <v>2.0873333333333334E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>20000</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <f>(1.3813+1.71049+1.65301)/3</f>
         <v>1.5815999999999999</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <f>(0.751013+0.718205+0.989791)/3</f>
         <v>0.81966966666666663</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f>(0.523142+0.539128+0.540469)/3</f>
         <v>0.53424633333333338</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f>(0.015845+0.015712+0.013865)/3</f>
         <v>1.5140666666666669E-2</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <f>(0.004039+0.004432+0.004354)/3</f>
         <v>4.2750000000000002E-3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <f>(0.006217+0.008083+0.007418)/3</f>
         <v>7.2393333333333337E-3</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f>(0.005457+0.00773+0.004016)/3</f>
         <v>5.7343333333333335E-3</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="5">
+        <f>(0.002409+0.002807+0.001517)/3</f>
+        <v>2.2443333333333334E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>40000</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>(6.06465+5.94132+6.02719)/3</f>
         <v>6.0110533333333338</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f>(3.0155+2.64147+2.69526)/3</f>
         <v>2.7840766666666661</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f>(2.97004+2.56919+2.53791)/3</f>
         <v>2.69238</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f>(0.029469+0.020023+0.0205499)/3</f>
         <v>2.3347299999999998E-2</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f>(0.008695+0.005554+0.006722)/3</f>
         <v>6.9903333333333336E-3</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <f>(0.01583+0.013135+0.008345)/3</f>
         <v>1.2436666666666667E-2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f>(0.008815+0.009832+0.008666)/3</f>
         <v>9.1043333333333341E-3</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="5">
+        <f>(0.00202+0.002007+0.002021)/3</f>
+        <v>2.016E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>80000</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f>(24.9336+25.1887+24.7084)/3</f>
         <v>24.943566666666666</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>(10.2434+10.8781+10.0555)/3</f>
         <v>10.392333333333333</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f>(10.0047+9.63215+10.267)/3</f>
         <v>9.9679500000000001</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f>(0.056134+0.056619+0.057547)/3</f>
         <v>5.6766666666666667E-2</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f>(0.012992+0.013812+0.013217)/3</f>
         <v>1.3340333333333334E-2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <f>(0.025214+0.016041+0.027138)/3</f>
         <v>2.2797666666666664E-2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f>(0.017695+0.02431+0.029495)/3</f>
         <v>2.3833333333333335E-2</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="5">
+        <f>(0.004052+0.00649+0.004832)/3</f>
+        <v>5.1246666666666663E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>100000</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f>(38.494+38.1501+38.7553)/3</f>
         <v>38.466466666666669</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f>(15.4495+15.9104+15.7671)/3</f>
         <v>15.708999999999998</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f>(15.2221+15.8064+15.726)/3</f>
         <v>15.584833333333334</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f>(0.074127+0.068825+0.072792)/3</f>
         <v>7.1914666666666668E-2</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f>(0.016786+0.016786+0.017193)/3</f>
         <v>1.6921666666666665E-2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f>(0.055697+0.035763+0.041513)/3</f>
         <v>4.4324333333333334E-2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f>(0.027616+0.038747+0.029909)/3</f>
         <v>3.209066666666667E-2</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="5">
+        <f>(0.004964+0.006096+0.008732)/3</f>
+        <v>6.5973333333333335E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/files/Rev00_DataGraphics_PTBR.xlsx
+++ b/files/Rev00_DataGraphics_PTBR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e359efc7a6f442/Desktop/Enari/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="793" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08EE2B65-88D4-4225-9C20-2D6B501EE414}"/>
+  <xr:revisionPtr revIDLastSave="814" documentId="8_{AECF5A1F-C523-497A-B2A1-66620ACB315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B35EC06-56B9-46E3-83F4-D846E9092A4C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{17A1DBDD-B353-481C-9E41-6E9A6A8B360B}"/>
   </bookViews>
@@ -142,7 +142,7 @@
     <numFmt numFmtId="168" formatCode="0.0000000"/>
     <numFmt numFmtId="169" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +162,18 @@
       <color indexed="81"/>
       <name val="Segoe UI"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF41403E"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -190,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -203,11 +215,118 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF41403E"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF41403E"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF41403E"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF41403E"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF41403E"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
       <fill>
@@ -225,56 +344,6 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -337,6 +406,23 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="0.000000"/>
       <fill>
         <patternFill patternType="solid">
@@ -390,6 +476,24 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.00000000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1068,7 +1172,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11334920915784402"/>
+          <c:y val="0.29058552521360365"/>
+          <c:w val="0.84813643378847314"/>
+          <c:h val="0.62743480203272461"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -1329,6 +1443,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>49995000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199990000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>799980000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3199960000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4999950000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1406,6 +1535,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64608</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>298432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>636864</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>815024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1483,6 +1627,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25004999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199990000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>799980000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3199960000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4999950000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1562,6 +1721,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>153619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>337246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>733114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1581832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024810</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1643,6 +1817,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1728,6 +1917,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1814,6 +2018,7 @@
       <c:valAx>
         <c:axId val="1742029999"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2032,7 +2237,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9538393456631874E-2"/>
+          <c:y val="0.29058552521360365"/>
+          <c:w val="0.86060372540641727"/>
+          <c:h val="0.62743480203272461"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -2199,7 +2414,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="#,##0">
                   <c:v>24881446</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -2293,6 +2508,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>49995000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199990000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>799980000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3199960000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4999950000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2370,6 +2600,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>123649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>267319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>574681</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1229355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1566476</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2447,6 +2692,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>155591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>327375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>725565</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1538091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999011</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2526,6 +2786,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>166314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>362605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>785306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1690938</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2163164</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2607,6 +2882,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2692,6 +2982,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2778,6 +3083,7 @@
       <c:valAx>
         <c:axId val="1742029999"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6997,6 +7303,7 @@
       <c:valAx>
         <c:axId val="1900562015"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -7234,7 +7541,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11754288013268414"/>
+          <c:y val="0.31321513541319584"/>
+          <c:w val="0.83956521858125399"/>
+          <c:h val="0.60097095324108984"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -7402,19 +7719,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7495,6 +7812,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7572,6 +7904,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1360000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1700000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7649,6 +7996,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50004999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200009999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800019999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3200039999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000049999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7728,6 +8090,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>131956</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>282878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>605202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1293150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1650854</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7810,19 +8187,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>800000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1200000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7909,6 +8286,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7995,6 +8387,7 @@
       <c:valAx>
         <c:axId val="1742029999"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8213,7 +8606,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8425744227227066E-2"/>
+          <c:y val="0.35985871446920198"/>
+          <c:w val="0.85868235448671104"/>
+          <c:h val="0.55816161277712628"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -8474,6 +8877,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8551,6 +8969,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1360000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1700000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8628,6 +9061,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>49995000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100009999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400019999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600039999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500049999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8707,6 +9155,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>116696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>547628</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1174074</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1497434</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8788,6 +9251,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>960000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8873,6 +9351,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8959,6 +9452,7 @@
       <c:valAx>
         <c:axId val="1742029999"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -9177,7 +9671,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10190158711912836"/>
+          <c:y val="0.35985871446920198"/>
+          <c:w val="0.85520651159480976"/>
+          <c:h val="0.55816161277712628"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -9438,6 +9942,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9515,6 +10034,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1360000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1700000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9592,6 +10126,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>85177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>184196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>381834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>806010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1055772</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9671,6 +10220,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>124210</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>268398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>576723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1233693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1574973</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9752,6 +10316,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>106666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>213333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>426666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>960000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9837,6 +10416,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9923,6 +10517,7 @@
       <c:valAx>
         <c:axId val="1742029999"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -10141,7 +10736,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0650869673935657E-2"/>
+          <c:y val="0.22131261517842185"/>
+          <c:w val="0.89194517740578894"/>
+          <c:h val="0.69670771206790638"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -10402,6 +11007,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>49995000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199990000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>799980000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3199960000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4999950000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10479,6 +11099,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>71712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153424</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>326848</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>693696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>877968</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10556,6 +11191,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>49995000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199990000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>799980000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3199960000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4999950000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10635,6 +11285,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>180584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>389734</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>838348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2303177</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10816,6 +11481,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10902,6 +11582,7 @@
       <c:valAx>
         <c:axId val="1742029999"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -17245,8 +17926,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
@@ -17288,8 +17969,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>815340</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
@@ -17582,13 +18263,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17622,8 +18303,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
@@ -17701,12 +18382,12 @@
   <autoFilter ref="A1:I6" xr:uid="{8823178C-8734-4A27-A77E-F8D0D6749A08}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BEE4EF88-29E2-4DDD-BFE1-7C8C5CD7653B}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{B10B8E1C-B634-4166-94E9-DE2069ED3373}" name="BubbleSort"/>
-    <tableColumn id="3" xr3:uid="{4780842C-AEBA-497B-9744-D11CFE76A317}" name="InsertionSort"/>
+    <tableColumn id="2" xr3:uid="{B10B8E1C-B634-4166-94E9-DE2069ED3373}" name="BubbleSort" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{4780842C-AEBA-497B-9744-D11CFE76A317}" name="InsertionSort" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{C966C232-0A1D-4C25-8E61-63486C4005FF}" name="SelectionSort"/>
-    <tableColumn id="5" xr3:uid="{674C8963-8923-47E8-992E-23C479459142}" name="MergeSort"/>
-    <tableColumn id="6" xr3:uid="{B4CA25D8-5A6E-4494-A066-9884739CA670}" name="QuickSort"/>
-    <tableColumn id="7" xr3:uid="{1696EB85-8CC2-4994-9660-2C79E0D1F342}" name="HeapSort"/>
+    <tableColumn id="5" xr3:uid="{674C8963-8923-47E8-992E-23C479459142}" name="MergeSort" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{B4CA25D8-5A6E-4494-A066-9884739CA670}" name="QuickSort" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{1696EB85-8CC2-4994-9660-2C79E0D1F342}" name="HeapSort" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{F82348C7-E74C-4C3D-A1B8-064F84E124EB}" name="RadixSort"/>
     <tableColumn id="9" xr3:uid="{4FF7CDA6-C38E-403B-8C07-DBA3B6D353E2}" name="CountingSort"/>
   </tableColumns>
@@ -17718,15 +18399,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}" name="ValoresOrdenados" displayName="ValoresOrdenados" ref="A1:I6" totalsRowShown="0">
   <autoFilter ref="A1:I6" xr:uid="{A40AA6AD-2F47-43F1-B765-C68DAECD3079}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7BB7217C-59F8-4792-9EA0-0720D6D8B12E}" name="Tamanho" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{D3407327-A185-4351-A55C-14014B1B867D}" name="InsertionSort" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{85C71698-96C8-48BF-9E4F-A31F4588E93A}" name="SelectionSort" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{D89F0557-14DD-46AD-9565-6B8B49785A1D}" name="MergeSort" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{342D5A51-5208-4EAA-A16A-1781198676FD}" name="QuickSort" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{FBA48003-53BB-41A5-8ED7-223B444BF07D}" name="HeapSort" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{AADA5A23-24DA-4A5E-9964-0C51CE8886B7}" name="RadixSort" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{8A78FEEA-65F3-4865-8351-640E30D1210A}" name="CoutingSort" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{7BB7217C-59F8-4792-9EA0-0720D6D8B12E}" name="Tamanho" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{C5127529-A4E4-4639-A4FA-738598E99596}" name="BubbleSort" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{D3407327-A185-4351-A55C-14014B1B867D}" name="InsertionSort" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{85C71698-96C8-48BF-9E4F-A31F4588E93A}" name="SelectionSort" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{D89F0557-14DD-46AD-9565-6B8B49785A1D}" name="MergeSort" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{342D5A51-5208-4EAA-A16A-1781198676FD}" name="QuickSort" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{FBA48003-53BB-41A5-8ED7-223B444BF07D}" name="HeapSort" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{AADA5A23-24DA-4A5E-9964-0C51CE8886B7}" name="RadixSort" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{8A78FEEA-65F3-4865-8351-640E30D1210A}" name="CoutingSort" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17736,15 +18417,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8E4EE357-D0C4-43BC-B881-53E1F8B229C0}" name="ValoresInversamenteOrdenados" displayName="ValoresInversamenteOrdenados" ref="A1:I6" totalsRowShown="0">
   <autoFilter ref="A1:I6" xr:uid="{8E4EE357-D0C4-43BC-B881-53E1F8B229C0}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C1F8DEBA-C1C8-4F0D-B5A8-25CE5185E617}" name="Tamanho" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{1AF9EE2E-6E80-48E6-A0EA-B411C6533961}" name="CoutingSort" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C1F8DEBA-C1C8-4F0D-B5A8-25CE5185E617}" name="Tamanho" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{73836CB1-A1D9-4D27-AA51-8096EC2B23FB}" name="BubbleSort" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{50D01E1E-E49D-48B8-9D64-68BB18FD132D}" name="InsertionSort" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{BF3C1C79-92F0-4E93-AE3F-44D10600C26D}" name="SelectionSort" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{71DF7DE3-1D14-438B-AA85-26258AB0E16E}" name="MergeSort" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{D7044A8A-343F-410A-A47C-299C79374E83}" name="QuickSort" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{44EE4653-5828-4AD8-89F5-DCD6FFFB7171}" name="HeapSort" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{06AF528E-0B37-497F-86E3-9CA2A978E533}" name="RadixSort" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{1AF9EE2E-6E80-48E6-A0EA-B411C6533961}" name="CoutingSort" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17754,15 +18435,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}" name="Aleatório1" displayName="Aleatório1" ref="A1:I6" totalsRowShown="0">
   <autoFilter ref="A1:I6" xr:uid="{59E19B13-715F-472A-A7B5-ACE0684BA986}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{88AB9604-3310-46A1-AD70-21C2608B01C8}" name="Tamanho" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{277890D8-FE28-4EFB-A704-7CA343850008}" name="InsertionSort" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{8F5D90A6-8E0B-4E1B-8D02-4E5B09ACDCA0}" name="QuickSort" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{59D8846C-91B6-4237-BE54-A17E0A509527}" name="HeapSort" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{88AB9604-3310-46A1-AD70-21C2608B01C8}" name="Tamanho" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{AB29B0C4-1AC7-48FD-8D3C-13AA6916E031}" name="BubbleSort" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{277890D8-FE28-4EFB-A704-7CA343850008}" name="InsertionSort" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{7B9C2A85-4991-44A3-8EB5-C25296FAD161}" name="SelectionSort" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{4450D16D-D01F-43DF-B8B1-9C2BAE2DFD58}" name="MergeSort" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{8F5D90A6-8E0B-4E1B-8D02-4E5B09ACDCA0}" name="QuickSort" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{59D8846C-91B6-4237-BE54-A17E0A509527}" name="HeapSort" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{6B8DE172-995E-41FE-BF4F-C27226F78BC4}" name="RadixSort" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{D222E4FB-3FC2-4727-958D-5584BD8905DB}" name="CoutingSort" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17776,19 +18457,19 @@
     <tableColumn id="2" xr3:uid="{992F9C0B-6668-4206-8062-5710FE0429D1}" name="BubbleSort"/>
     <tableColumn id="3" xr3:uid="{EFA1803E-44E3-404F-87D9-65CCBEE1A3DE}" name="InsertionSort"/>
     <tableColumn id="4" xr3:uid="{A829DF70-6B9C-49B0-870B-D8A3FCDFF1FC}" name="SelectionSort"/>
-    <tableColumn id="5" xr3:uid="{EECD94D9-E658-432D-87FC-A98B3E2C2645}" name="MergeSort" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{EECD94D9-E658-432D-87FC-A98B3E2C2645}" name="MergeSort" dataDxfId="9">
       <calculatedColumnFormula>(ComparaçãoEspacial[[#This Row],[Tamanho]]*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+(5*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{ACF4646F-3D62-4D2C-AFE7-17C20339F4C3}" name="QuickSort" dataDxfId="9">
+    <tableColumn id="6" xr3:uid="{ACF4646F-3D62-4D2C-AFE7-17C20339F4C3}" name="QuickSort" dataDxfId="8">
       <calculatedColumnFormula>(4*LOG(ComparaçãoEspacial[[#This Row],[Tamanho]],2))+4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0B50FEDD-0752-47C3-ABE3-0D8374A536C0}" name="HeapSort" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{0B50FEDD-0752-47C3-ABE3-0D8374A536C0}" name="HeapSort" dataDxfId="7">
       <calculatedColumnFormula>2+(6*ComparaçãoEspacial[[#This Row],[Tamanho]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C8222E89-0ECB-433B-90A5-CBD88DB6FE41}" name="RadixSort" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{C8222E89-0ECB-433B-90A5-CBD88DB6FE41}" name="RadixSort" dataDxfId="6">
       <calculatedColumnFormula>(2*ComparaçãoEspacial[[#This Row],[Tamanho]])+2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{64003905-FAB0-4E61-96E1-4F3B35279A72}" name="CoutingSort" dataDxfId="6">
+    <tableColumn id="9" xr3:uid="{64003905-FAB0-4E61-96E1-4F3B35279A72}" name="CoutingSort" dataDxfId="5">
       <calculatedColumnFormula>(5*(ComparaçãoEspacial[[#This Row],[Tamanho]]+11))+4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18369,7 +19050,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C6"/>
+      <selection activeCell="B2" sqref="B2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18424,6 +19105,24 @@
       <c r="C2">
         <v>50004999</v>
       </c>
+      <c r="D2">
+        <v>49995000</v>
+      </c>
+      <c r="E2">
+        <v>64608</v>
+      </c>
+      <c r="F2">
+        <v>25004999</v>
+      </c>
+      <c r="G2">
+        <v>153619</v>
+      </c>
+      <c r="H2">
+        <v>9999</v>
+      </c>
+      <c r="I2">
+        <v>9999</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -18435,6 +19134,24 @@
       <c r="C3">
         <v>200009999</v>
       </c>
+      <c r="D3">
+        <v>199990000</v>
+      </c>
+      <c r="E3">
+        <v>139216</v>
+      </c>
+      <c r="F3">
+        <v>199990000</v>
+      </c>
+      <c r="G3">
+        <v>337246</v>
+      </c>
+      <c r="H3">
+        <v>19999</v>
+      </c>
+      <c r="I3">
+        <v>19999</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -18446,6 +19163,24 @@
       <c r="C4">
         <v>800019999</v>
       </c>
+      <c r="D4">
+        <v>799980000</v>
+      </c>
+      <c r="E4">
+        <v>298432</v>
+      </c>
+      <c r="F4">
+        <v>799980000</v>
+      </c>
+      <c r="G4">
+        <v>733114</v>
+      </c>
+      <c r="H4">
+        <v>39999</v>
+      </c>
+      <c r="I4">
+        <v>39999</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -18457,6 +19192,24 @@
       <c r="C5">
         <v>3200039999</v>
       </c>
+      <c r="D5">
+        <v>3199960000</v>
+      </c>
+      <c r="E5">
+        <v>636864</v>
+      </c>
+      <c r="F5">
+        <v>3199960000</v>
+      </c>
+      <c r="G5">
+        <v>1581832</v>
+      </c>
+      <c r="H5">
+        <v>79999</v>
+      </c>
+      <c r="I5">
+        <v>79999</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -18467,6 +19220,24 @@
       </c>
       <c r="C6">
         <v>5000049999</v>
+      </c>
+      <c r="D6">
+        <v>4999950000</v>
+      </c>
+      <c r="E6">
+        <v>815024</v>
+      </c>
+      <c r="F6">
+        <v>4999950000</v>
+      </c>
+      <c r="G6">
+        <v>2024810</v>
+      </c>
+      <c r="H6">
+        <v>99999</v>
+      </c>
+      <c r="I6">
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -18485,8 +19256,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18538,8 +19309,26 @@
       <c r="B2">
         <v>49988071</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="10">
         <v>24881446</v>
+      </c>
+      <c r="D2">
+        <v>49995000</v>
+      </c>
+      <c r="E2" s="11">
+        <v>123649</v>
+      </c>
+      <c r="F2" s="11">
+        <v>155591</v>
+      </c>
+      <c r="G2" s="11">
+        <v>166314</v>
+      </c>
+      <c r="H2">
+        <v>9999</v>
+      </c>
+      <c r="I2">
+        <v>9999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -18549,41 +19338,113 @@
       <c r="B3">
         <v>199971955</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>100198747</v>
+      </c>
+      <c r="D3">
+        <v>199990000</v>
+      </c>
+      <c r="E3" s="11">
+        <v>267319</v>
+      </c>
+      <c r="F3" s="11">
+        <v>327375</v>
+      </c>
+      <c r="G3" s="11">
+        <v>362605</v>
+      </c>
+      <c r="H3">
+        <v>19999</v>
+      </c>
+      <c r="I3">
+        <v>19999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>799928277</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>399665715</v>
+      </c>
+      <c r="D4">
+        <v>799980000</v>
+      </c>
+      <c r="E4" s="11">
+        <v>574681</v>
+      </c>
+      <c r="F4" s="11">
+        <v>725565</v>
+      </c>
+      <c r="G4" s="11">
+        <v>785306</v>
+      </c>
+      <c r="H4">
+        <v>39999</v>
+      </c>
+      <c r="I4">
+        <v>39999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11">
         <v>3199818372</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <v>1600967093</v>
+      </c>
+      <c r="D5">
+        <v>3199960000</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1229355</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1538091</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1690938</v>
+      </c>
+      <c r="H5">
+        <v>79999</v>
+      </c>
+      <c r="I5">
+        <v>79999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="11">
         <v>4999529555</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <v>2500575302</v>
+      </c>
+      <c r="D6">
+        <v>4999950000</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1566476</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1999011</v>
+      </c>
+      <c r="G6" s="11">
+        <v>2163164</v>
+      </c>
+      <c r="H6">
+        <v>99999</v>
+      </c>
+      <c r="I6">
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -18603,7 +19464,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:I6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19334,7 +20195,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19565,8 +20426,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19619,10 +20480,25 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>9999</v>
       </c>
+      <c r="E2">
+        <v>140000</v>
+      </c>
+      <c r="F2">
+        <v>50004999</v>
+      </c>
+      <c r="G2">
+        <v>131956</v>
+      </c>
       <c r="H2">
-        <v>0</v>
+        <v>100000</v>
+      </c>
+      <c r="I2">
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -19633,10 +20509,25 @@
         <v>0</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>19999</v>
       </c>
+      <c r="E3">
+        <v>300000</v>
+      </c>
+      <c r="F3">
+        <v>200009999</v>
+      </c>
+      <c r="G3">
+        <v>282878</v>
+      </c>
       <c r="H3">
-        <v>0</v>
+        <v>200000</v>
+      </c>
+      <c r="I3">
+        <v>20000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -19647,10 +20538,25 @@
         <v>0</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>39999</v>
       </c>
+      <c r="E4">
+        <v>640000</v>
+      </c>
+      <c r="F4">
+        <v>800019999</v>
+      </c>
+      <c r="G4">
+        <v>605202</v>
+      </c>
       <c r="H4">
-        <v>0</v>
+        <v>400000</v>
+      </c>
+      <c r="I4">
+        <v>40000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -19661,10 +20567,25 @@
         <v>0</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>79999</v>
       </c>
+      <c r="E5">
+        <v>1360000</v>
+      </c>
+      <c r="F5">
+        <v>3200039999</v>
+      </c>
+      <c r="G5">
+        <v>1293150</v>
+      </c>
       <c r="H5">
-        <v>0</v>
+        <v>800000</v>
+      </c>
+      <c r="I5">
+        <v>80000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -19675,10 +20596,25 @@
         <v>0</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>99999</v>
       </c>
+      <c r="E6">
+        <v>1700000</v>
+      </c>
+      <c r="F6">
+        <v>5000049999</v>
+      </c>
+      <c r="G6">
+        <v>1650854</v>
+      </c>
       <c r="H6">
-        <v>0</v>
+        <v>1200000</v>
+      </c>
+      <c r="I6">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -19698,7 +20634,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19753,6 +20689,24 @@
       <c r="C2">
         <v>50004999</v>
       </c>
+      <c r="D2">
+        <v>9999</v>
+      </c>
+      <c r="E2">
+        <v>140000</v>
+      </c>
+      <c r="F2">
+        <v>49995000</v>
+      </c>
+      <c r="G2">
+        <v>116696</v>
+      </c>
+      <c r="H2">
+        <v>120000</v>
+      </c>
+      <c r="I2">
+        <v>10000</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -19764,6 +20718,24 @@
       <c r="C3">
         <v>200009999</v>
       </c>
+      <c r="D3">
+        <v>19999</v>
+      </c>
+      <c r="E3">
+        <v>300000</v>
+      </c>
+      <c r="F3">
+        <v>100009999</v>
+      </c>
+      <c r="G3">
+        <v>254334</v>
+      </c>
+      <c r="H3">
+        <v>240000</v>
+      </c>
+      <c r="I3">
+        <v>20000</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -19775,6 +20747,24 @@
       <c r="C4">
         <v>800019999</v>
       </c>
+      <c r="D4">
+        <v>39999</v>
+      </c>
+      <c r="E4">
+        <v>640000</v>
+      </c>
+      <c r="F4">
+        <v>400019999</v>
+      </c>
+      <c r="G4">
+        <v>547628</v>
+      </c>
+      <c r="H4">
+        <v>480000</v>
+      </c>
+      <c r="I4">
+        <v>40000</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -19786,6 +20776,24 @@
       <c r="C5">
         <v>3200039999</v>
       </c>
+      <c r="D5">
+        <v>79999</v>
+      </c>
+      <c r="E5">
+        <v>1360000</v>
+      </c>
+      <c r="F5">
+        <v>1600039999</v>
+      </c>
+      <c r="G5">
+        <v>1174074</v>
+      </c>
+      <c r="H5">
+        <v>960000</v>
+      </c>
+      <c r="I5">
+        <v>80000</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -19796,6 +20804,24 @@
       </c>
       <c r="C6">
         <v>5000049999</v>
+      </c>
+      <c r="D6">
+        <v>99999</v>
+      </c>
+      <c r="E6">
+        <v>1700000</v>
+      </c>
+      <c r="F6">
+        <v>2500049999</v>
+      </c>
+      <c r="G6">
+        <v>1497434</v>
+      </c>
+      <c r="H6">
+        <v>1200000</v>
+      </c>
+      <c r="I6">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -19815,7 +20841,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19870,6 +20896,24 @@
       <c r="C2">
         <v>24881446</v>
       </c>
+      <c r="D2">
+        <v>9999</v>
+      </c>
+      <c r="E2">
+        <v>140000</v>
+      </c>
+      <c r="F2">
+        <v>85177</v>
+      </c>
+      <c r="G2">
+        <v>124210</v>
+      </c>
+      <c r="H2">
+        <v>106666</v>
+      </c>
+      <c r="I2">
+        <v>10000</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -19881,6 +20925,24 @@
       <c r="C3">
         <v>100198747</v>
       </c>
+      <c r="D3">
+        <v>19999</v>
+      </c>
+      <c r="E3">
+        <v>300000</v>
+      </c>
+      <c r="F3">
+        <v>184196</v>
+      </c>
+      <c r="G3">
+        <v>268398</v>
+      </c>
+      <c r="H3">
+        <v>213333</v>
+      </c>
+      <c r="I3">
+        <v>20000</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -19892,6 +20954,24 @@
       <c r="C4">
         <v>399665715</v>
       </c>
+      <c r="D4">
+        <v>39999</v>
+      </c>
+      <c r="E4">
+        <v>640000</v>
+      </c>
+      <c r="F4">
+        <v>381834</v>
+      </c>
+      <c r="G4">
+        <v>576723</v>
+      </c>
+      <c r="H4">
+        <v>426666</v>
+      </c>
+      <c r="I4">
+        <v>40000</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -19903,6 +20983,24 @@
       <c r="C5">
         <v>1600967093</v>
       </c>
+      <c r="D5">
+        <v>79999</v>
+      </c>
+      <c r="E5">
+        <v>1360000</v>
+      </c>
+      <c r="F5">
+        <v>806010</v>
+      </c>
+      <c r="G5">
+        <v>1233693</v>
+      </c>
+      <c r="H5">
+        <v>960000</v>
+      </c>
+      <c r="I5">
+        <v>80000</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -19913,6 +21011,24 @@
       </c>
       <c r="C6">
         <v>2500575302</v>
+      </c>
+      <c r="D6">
+        <v>99999</v>
+      </c>
+      <c r="E6">
+        <v>1700000</v>
+      </c>
+      <c r="F6">
+        <v>1055772</v>
+      </c>
+      <c r="G6">
+        <v>1574973</v>
+      </c>
+      <c r="H6">
+        <v>1200000</v>
+      </c>
+      <c r="I6">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -19932,7 +21048,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19987,7 +21103,22 @@
       <c r="C2">
         <v>9999</v>
       </c>
+      <c r="D2">
+        <v>49995000</v>
+      </c>
+      <c r="E2">
+        <v>71712</v>
+      </c>
+      <c r="F2">
+        <v>49995000</v>
+      </c>
+      <c r="G2">
+        <v>180584</v>
+      </c>
       <c r="H2">
+        <v>9999</v>
+      </c>
+      <c r="I2">
         <v>9999</v>
       </c>
     </row>
@@ -20001,7 +21132,22 @@
       <c r="C3">
         <v>19999</v>
       </c>
+      <c r="D3">
+        <v>199990000</v>
+      </c>
+      <c r="E3">
+        <v>153424</v>
+      </c>
+      <c r="F3">
+        <v>199990000</v>
+      </c>
+      <c r="G3">
+        <v>389734</v>
+      </c>
       <c r="H3">
+        <v>19999</v>
+      </c>
+      <c r="I3">
         <v>19999</v>
       </c>
     </row>
@@ -20015,7 +21161,22 @@
       <c r="C4">
         <v>39999</v>
       </c>
+      <c r="D4">
+        <v>799980000</v>
+      </c>
+      <c r="E4">
+        <v>326848</v>
+      </c>
+      <c r="F4">
+        <v>799980000</v>
+      </c>
+      <c r="G4">
+        <v>838348</v>
+      </c>
       <c r="H4">
+        <v>39999</v>
+      </c>
+      <c r="I4">
         <v>39999</v>
       </c>
     </row>
@@ -20029,7 +21190,22 @@
       <c r="C5">
         <v>79999</v>
       </c>
+      <c r="D5">
+        <v>3199960000</v>
+      </c>
+      <c r="E5">
+        <v>693696</v>
+      </c>
+      <c r="F5">
+        <v>3199960000</v>
+      </c>
+      <c r="G5">
+        <v>1800487</v>
+      </c>
       <c r="H5">
+        <v>79999</v>
+      </c>
+      <c r="I5">
         <v>79999</v>
       </c>
     </row>
@@ -20043,7 +21219,22 @@
       <c r="C6">
         <v>99999</v>
       </c>
+      <c r="D6">
+        <v>4999950000</v>
+      </c>
+      <c r="E6">
+        <v>877968</v>
+      </c>
+      <c r="F6">
+        <v>4999950000</v>
+      </c>
+      <c r="G6">
+        <v>2303177</v>
+      </c>
       <c r="H6">
+        <v>99999</v>
+      </c>
+      <c r="I6">
         <v>99999</v>
       </c>
     </row>
